--- a/DDAf_2025_Tableau_annexe_Tab12.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AD87F83-3E57-44C0-B583-82AE16AE1C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{487A92BD-5A0C-46CC-9620-5513233E1CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{272ECEC1-CC4E-4643-910A-4AA3EB78D93F}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{5342E3E4-E5EC-4A62-8325-6AFBFEC11D3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab12" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="176">
   <si>
     <t>Table 12: Investment and capital stock</t>
   </si>
@@ -93,15 +93,15 @@
     <t>Botswana</t>
   </si>
   <si>
-    <t>Update will be coming soon</t>
-  </si>
-  <si>
     <t>SWZ</t>
   </si>
   <si>
     <t>Eswatini</t>
   </si>
   <si>
+    <t>..</t>
+  </si>
+  <si>
     <t>LSO</t>
   </si>
   <si>
@@ -558,13 +558,13 @@
     <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
   </si>
   <si>
-    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails, cliquez ici.</t>
-  </si>
-  <si>
-    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs, cliquez ici.</t>
-  </si>
-  <si>
-    <t>Pour voir la liste complète des sources utilisées dans l'annexe statistique, cliquez ici.</t>
+    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
+  </si>
+  <si>
+    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
+  </si>
+  <si>
+    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -576,7 +576,7 @@
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,13 +645,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="35"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
       <family val="2"/>
@@ -951,7 +944,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1014,8 +1007,17 @@
     <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1029,24 +1031,12 @@
     <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="37" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1065,25 +1055,25 @@
     <xf numFmtId="37" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1161,31 +1151,31 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1206,19 +1196,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1257,25 +1247,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1283,9 +1273,9 @@
     </xf>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1571,11 +1561,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C94A5DD-DD79-4691-9268-83B9E93771B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE3E2D4-5BC7-4E30-9588-B9AEEB6D9DDE}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O113"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1583,15 +1573,15 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.140625" style="116" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="117" customWidth="1"/>
-    <col min="7" max="8" width="14.140625" style="116" customWidth="1"/>
-    <col min="9" max="12" width="14.140625" style="118" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="116" customWidth="1"/>
+    <col min="3" max="4" width="14.140625" style="115" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" style="116" customWidth="1"/>
+    <col min="7" max="8" width="14.140625" style="115" customWidth="1"/>
+    <col min="9" max="12" width="14.140625" style="117" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="115" customWidth="1"/>
     <col min="14" max="15" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1607,7 +1597,7 @@
       <c r="L1" s="4"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1648,919 +1638,1965 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="18"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="15">
+        <v>3.0946790000000002</v>
+      </c>
+      <c r="D3" s="16">
+        <v>2.7965E-2</v>
+      </c>
+      <c r="E3" s="17">
+        <v>14.537324</v>
+      </c>
+      <c r="F3" s="17">
+        <v>119.402233</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0.188385</v>
+      </c>
+      <c r="H3" s="18">
+        <v>214.183457</v>
+      </c>
+      <c r="I3" s="19">
+        <v>2478.800655</v>
+      </c>
+      <c r="J3" s="17">
+        <v>11644.221014000001</v>
+      </c>
+      <c r="K3" s="17">
+        <v>95639.746914000003</v>
+      </c>
+      <c r="L3" s="17">
+        <v>150.89379299999999</v>
+      </c>
+      <c r="M3" s="18">
+        <v>171558.34182199999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22" t="s">
+      <c r="C4" s="21">
+        <v>6.2359369999999998</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23">
+        <v>21.302468999999999</v>
+      </c>
+      <c r="F4" s="23">
+        <v>92.693973999999997</v>
+      </c>
+      <c r="G4" s="22">
+        <v>0.39160099999999998</v>
+      </c>
+      <c r="H4" s="24">
+        <v>175.23266799999999</v>
+      </c>
+      <c r="I4" s="25">
+        <v>1309.8418939999999</v>
+      </c>
+      <c r="J4" s="23">
+        <v>4474.5265429999999</v>
+      </c>
+      <c r="K4" s="23">
+        <v>19470.117146000001</v>
+      </c>
+      <c r="L4" s="23">
+        <v>82.254709000000005</v>
+      </c>
+      <c r="M4" s="24">
+        <v>36807.149439000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="B5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="C5" s="21">
+        <v>3.1382270000000001</v>
+      </c>
+      <c r="D5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="28">
+        <v>5.3811419999999996</v>
+      </c>
+      <c r="F5" s="28">
+        <v>93.027832000000004</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="29">
+        <v>107.00983100000001</v>
+      </c>
+      <c r="I5" s="25">
+        <v>191.510098</v>
+      </c>
+      <c r="J5" s="28">
+        <v>328.38384500000001</v>
+      </c>
+      <c r="K5" s="28">
+        <v>5677.017605</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="29">
+        <v>6530.26793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="21">
+        <v>10.603882</v>
+      </c>
+      <c r="D6" s="27">
+        <v>0</v>
+      </c>
+      <c r="E6" s="28">
+        <v>10.629583999999999</v>
+      </c>
+      <c r="F6" s="28">
+        <v>121.76605600000001</v>
+      </c>
+      <c r="G6" s="27">
+        <v>0</v>
+      </c>
+      <c r="H6" s="29">
+        <v>121.142822</v>
+      </c>
+      <c r="I6" s="25">
+        <v>363.58548200000001</v>
+      </c>
+      <c r="J6" s="28">
+        <v>364.46673900000002</v>
+      </c>
+      <c r="K6" s="28">
+        <v>4175.1097739999996</v>
+      </c>
+      <c r="L6" s="28">
+        <v>0</v>
+      </c>
+      <c r="M6" s="29">
+        <v>4153.740315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="21">
+        <v>3.6157319999999999</v>
+      </c>
+      <c r="D7" s="27">
+        <v>8.8114999999999999E-2</v>
+      </c>
+      <c r="E7" s="28">
+        <v>3.1988270000000001</v>
+      </c>
+      <c r="F7" s="28">
+        <v>45.092309999999998</v>
+      </c>
+      <c r="G7" s="27">
+        <v>2.3515999999999999E-2</v>
+      </c>
+      <c r="H7" s="29">
+        <v>53.131636999999998</v>
+      </c>
+      <c r="I7" s="25">
+        <v>544.49939900000004</v>
+      </c>
+      <c r="J7" s="28">
+        <v>481.71704099999999</v>
+      </c>
+      <c r="K7" s="28">
+        <v>6790.5319810000001</v>
+      </c>
+      <c r="L7" s="28">
+        <v>3.5413679999999998</v>
+      </c>
+      <c r="M7" s="29">
+        <v>8001.1880629999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="26"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="21">
+        <v>5.9483839999999999</v>
+      </c>
+      <c r="D8" s="27">
+        <v>0.340277</v>
+      </c>
+      <c r="E8" s="28">
+        <v>23.115352999999999</v>
+      </c>
+      <c r="F8" s="28">
+        <v>89.327629000000002</v>
+      </c>
+      <c r="G8" s="27">
+        <v>5.1341559999999999</v>
+      </c>
+      <c r="H8" s="29">
+        <v>94.360938000000004</v>
+      </c>
+      <c r="I8" s="25">
+        <v>1443.9329190000001</v>
+      </c>
+      <c r="J8" s="28">
+        <v>5611.1075209999999</v>
+      </c>
+      <c r="K8" s="28">
+        <v>21683.72149</v>
+      </c>
+      <c r="L8" s="28">
+        <v>1246.2842539999999</v>
+      </c>
+      <c r="M8" s="29">
+        <v>22905.526626999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="26"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="30">
+        <v>4.7375350000000003</v>
+      </c>
+      <c r="D9" s="27">
+        <v>0.18604999999999999</v>
+      </c>
+      <c r="E9" s="28">
+        <v>10.570797000000001</v>
+      </c>
+      <c r="F9" s="28">
+        <v>68.609781999999996</v>
+      </c>
+      <c r="G9" s="27">
+        <v>0.244952</v>
+      </c>
+      <c r="H9" s="29">
+        <v>135.012655</v>
+      </c>
+      <c r="I9" s="31">
+        <v>617.98293699999999</v>
+      </c>
+      <c r="J9" s="28">
+        <v>1378.8969500000001</v>
+      </c>
+      <c r="K9" s="28">
+        <v>8949.7320870000003</v>
+      </c>
+      <c r="L9" s="28">
+        <v>31.952539000000002</v>
+      </c>
+      <c r="M9" s="29">
+        <v>17611.587184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="26"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="30">
+        <v>2.3589380000000002</v>
+      </c>
+      <c r="D10" s="27">
+        <v>0.50642299999999996</v>
+      </c>
+      <c r="E10" s="28">
+        <v>13.254860000000001</v>
+      </c>
+      <c r="F10" s="28">
+        <v>47.438757000000003</v>
+      </c>
+      <c r="G10" s="27">
+        <v>3.9940470000000001</v>
+      </c>
+      <c r="H10" s="29">
+        <v>166.47350800000001</v>
+      </c>
+      <c r="I10" s="31">
+        <v>9501.6258379999999</v>
+      </c>
+      <c r="J10" s="28">
+        <v>53389.592693999999</v>
+      </c>
+      <c r="K10" s="28">
+        <v>191079.79062799999</v>
+      </c>
+      <c r="L10" s="28">
+        <v>16087.724259000001</v>
+      </c>
+      <c r="M10" s="29">
+        <v>670542.94350000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="32"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="21">
+        <v>7.1134599999999999</v>
+      </c>
+      <c r="D11" s="22">
+        <v>0.65554800000000002</v>
+      </c>
+      <c r="E11" s="23">
+        <v>21.966787</v>
+      </c>
+      <c r="F11" s="23">
+        <v>41.561456999999997</v>
+      </c>
+      <c r="G11" s="22">
+        <v>6.6571239999999996</v>
+      </c>
+      <c r="H11" s="24">
+        <v>186.79499200000001</v>
+      </c>
+      <c r="I11" s="25">
+        <v>2026.9046189999999</v>
+      </c>
+      <c r="J11" s="23">
+        <v>6259.2026239999996</v>
+      </c>
+      <c r="K11" s="23">
+        <v>11842.49653</v>
+      </c>
+      <c r="L11" s="23">
+        <v>1896.876712</v>
+      </c>
+      <c r="M11" s="24">
+        <v>53225.255808000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="37"/>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40" t="s">
+      <c r="C12" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="34">
+        <v>4.4913000000000002E-2</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="34">
+        <v>0.70991599999999999</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="35">
+        <v>63675.852375000002</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="44"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="40">
+        <v>3.093502</v>
+      </c>
+      <c r="D13" s="41">
+        <v>0.35926999999999998</v>
+      </c>
+      <c r="E13" s="42">
+        <v>14.160526000000001</v>
+      </c>
+      <c r="F13" s="42">
+        <v>66.448480000000004</v>
+      </c>
+      <c r="G13" s="41">
+        <v>2.960404</v>
+      </c>
+      <c r="H13" s="43">
+        <v>171.949837</v>
+      </c>
+      <c r="I13" s="44">
+        <v>18478.683840000002</v>
+      </c>
+      <c r="J13" s="42">
+        <v>83932.114971000003</v>
+      </c>
+      <c r="K13" s="42">
+        <v>365308.26415599999</v>
+      </c>
+      <c r="L13" s="42">
+        <v>83175.380009</v>
+      </c>
+      <c r="M13" s="43">
+        <v>991336.00068699999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="26"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="30">
+        <v>2.77704</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="28">
+        <v>7.4997350000000003</v>
+      </c>
+      <c r="F14" s="28">
+        <v>43.075837999999997</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="29">
+        <v>66.344571000000002</v>
+      </c>
+      <c r="I14" s="31">
+        <v>144.33164500000001</v>
+      </c>
+      <c r="J14" s="28">
+        <v>389.78509000000003</v>
+      </c>
+      <c r="K14" s="28">
+        <v>2238.7883619999998</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="29">
+        <v>3448.1380389999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="26"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="30">
+        <v>3.6611189999999998</v>
+      </c>
+      <c r="D15" s="27">
+        <v>0.49333199999999999</v>
+      </c>
+      <c r="E15" s="28">
+        <v>12.522708</v>
+      </c>
+      <c r="F15" s="28">
+        <v>43.251677999999998</v>
+      </c>
+      <c r="G15" s="27">
+        <v>1.7739940000000001</v>
+      </c>
+      <c r="H15" s="29">
+        <v>115.61825</v>
+      </c>
+      <c r="I15" s="31">
+        <v>2032.637708</v>
+      </c>
+      <c r="J15" s="28">
+        <v>6952.5546839999997</v>
+      </c>
+      <c r="K15" s="28">
+        <v>24013.147656000001</v>
+      </c>
+      <c r="L15" s="28">
+        <v>984.91412300000002</v>
+      </c>
+      <c r="M15" s="29">
+        <v>64190.758503999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="26"/>
+      <c r="C16" s="30">
+        <v>6.7031510000000001</v>
+      </c>
+      <c r="D16" s="27">
+        <v>0</v>
+      </c>
+      <c r="E16" s="28">
+        <v>10.785116</v>
+      </c>
+      <c r="F16" s="28">
+        <v>270.57940500000001</v>
+      </c>
+      <c r="G16" s="27">
+        <v>0</v>
+      </c>
+      <c r="H16" s="29">
+        <v>172.744483</v>
+      </c>
+      <c r="I16" s="31">
+        <v>190.32320200000001</v>
+      </c>
+      <c r="J16" s="28">
+        <v>306.22277200000002</v>
+      </c>
+      <c r="K16" s="28">
+        <v>7682.5849079999998</v>
+      </c>
+      <c r="L16" s="28">
+        <v>0</v>
+      </c>
+      <c r="M16" s="29">
+        <v>4904.7489800000003</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="50"/>
+      <c r="C17" s="46">
+        <v>2.00291</v>
+      </c>
+      <c r="D17" s="47">
+        <v>8.2670999999999994E-2</v>
+      </c>
+      <c r="E17" s="48">
+        <v>8.5115560000000006</v>
+      </c>
+      <c r="F17" s="48">
+        <v>41.268386</v>
+      </c>
+      <c r="G17" s="47">
+        <v>0</v>
+      </c>
+      <c r="H17" s="49">
+        <v>89.259557999999998</v>
+      </c>
+      <c r="I17" s="50">
+        <v>339.20014099999997</v>
+      </c>
+      <c r="J17" s="48">
+        <v>1441.462673</v>
+      </c>
+      <c r="K17" s="48">
+        <v>6988.9512059999997</v>
+      </c>
+      <c r="L17" s="48">
+        <v>0</v>
+      </c>
+      <c r="M17" s="49">
+        <v>15116.428018000001</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="50"/>
+      <c r="C18" s="46">
+        <v>4.5125859999999998</v>
+      </c>
+      <c r="D18" s="47">
+        <v>0</v>
+      </c>
+      <c r="E18" s="48">
+        <v>14.342934</v>
+      </c>
+      <c r="F18" s="48">
+        <v>109.05959900000001</v>
+      </c>
+      <c r="G18" s="47">
+        <v>5.0255340000000004</v>
+      </c>
+      <c r="H18" s="49">
+        <v>309.59492699999998</v>
+      </c>
+      <c r="I18" s="50">
+        <v>794.35284000000001</v>
+      </c>
+      <c r="J18" s="48">
+        <v>2524.7941700000001</v>
+      </c>
+      <c r="K18" s="48">
+        <v>19197.817344999999</v>
+      </c>
+      <c r="L18" s="48">
+        <v>884.64762800000005</v>
+      </c>
+      <c r="M18" s="49">
+        <v>54498.149121000002</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="32"/>
+      <c r="C19" s="21">
+        <v>2.2708159999999999</v>
+      </c>
+      <c r="D19" s="22">
+        <v>0</v>
+      </c>
+      <c r="E19" s="23">
+        <v>10.848431</v>
+      </c>
+      <c r="F19" s="23">
+        <v>24.101734</v>
+      </c>
+      <c r="G19" s="22">
+        <v>2.9286E-2</v>
+      </c>
+      <c r="H19" s="24">
+        <v>111.77463899999999</v>
+      </c>
+      <c r="I19" s="25">
+        <v>2052.3137200000001</v>
+      </c>
+      <c r="J19" s="23">
+        <v>9804.5761810000004</v>
+      </c>
+      <c r="K19" s="23">
+        <v>21782.621755</v>
+      </c>
+      <c r="L19" s="23">
+        <v>26.467669000000001</v>
+      </c>
+      <c r="M19" s="24">
+        <v>101019.496499</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="50"/>
+      <c r="C20" s="46">
+        <v>4.3048960000000003</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="48">
+        <v>3.5311669999999999</v>
+      </c>
+      <c r="F20" s="48">
+        <v>222.151419</v>
+      </c>
+      <c r="G20" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="49">
+        <v>121.50417</v>
+      </c>
+      <c r="I20" s="50">
+        <v>803.13959999999997</v>
+      </c>
+      <c r="J20" s="48">
+        <v>658.78950199999997</v>
+      </c>
+      <c r="K20" s="48">
+        <v>41445.511957000002</v>
+      </c>
+      <c r="L20" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="49">
+        <v>22668.329806999998</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="50"/>
+      <c r="C21" s="46">
+        <v>1.563761</v>
+      </c>
+      <c r="D21" s="47">
+        <v>0.85213799999999995</v>
+      </c>
+      <c r="E21" s="48">
+        <v>15.714117999999999</v>
+      </c>
+      <c r="F21" s="48">
+        <v>73.463189999999997</v>
+      </c>
+      <c r="G21" s="47">
+        <v>4.3507949999999997</v>
+      </c>
+      <c r="H21" s="49">
+        <v>179.750032</v>
+      </c>
+      <c r="I21" s="50">
+        <v>314.44005499999997</v>
+      </c>
+      <c r="J21" s="48">
+        <v>3159.7843990000001</v>
+      </c>
+      <c r="K21" s="48">
+        <v>14771.926162</v>
+      </c>
+      <c r="L21" s="48">
+        <v>874.85510299999999</v>
+      </c>
+      <c r="M21" s="49">
+        <v>36144.020709999997</v>
+      </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="56"/>
+      <c r="C22" s="52">
+        <v>3.295452</v>
+      </c>
+      <c r="D22" s="53">
+        <v>0</v>
+      </c>
+      <c r="E22" s="54">
+        <v>9.0031479999999995</v>
+      </c>
+      <c r="F22" s="54">
+        <v>210.99873400000001</v>
+      </c>
+      <c r="G22" s="53">
+        <v>19.229337000000001</v>
+      </c>
+      <c r="H22" s="55">
+        <v>123.771816</v>
+      </c>
+      <c r="I22" s="56">
+        <v>20.509259</v>
+      </c>
+      <c r="J22" s="54">
+        <v>56.031128000000002</v>
+      </c>
+      <c r="K22" s="54">
+        <v>1313.151533</v>
+      </c>
+      <c r="L22" s="54">
+        <v>119.673844</v>
+      </c>
+      <c r="M22" s="55">
+        <v>770.29422699999998</v>
+      </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39"/>
-      <c r="B23" s="40" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="44"/>
+      <c r="C23" s="40">
+        <v>3.0103680000000002</v>
+      </c>
+      <c r="D23" s="41">
+        <v>0.26627699999999999</v>
+      </c>
+      <c r="E23" s="42">
+        <v>11.238516000000001</v>
+      </c>
+      <c r="F23" s="42">
+        <v>63.239420000000003</v>
+      </c>
+      <c r="G23" s="41">
+        <v>1.6231040000000001</v>
+      </c>
+      <c r="H23" s="43">
+        <v>135.029459</v>
+      </c>
+      <c r="I23" s="44">
+        <v>6691.2481690000004</v>
+      </c>
+      <c r="J23" s="42">
+        <v>25294.000596999998</v>
+      </c>
+      <c r="K23" s="42">
+        <v>139434.50088400001</v>
+      </c>
+      <c r="L23" s="42">
+        <v>2890.5583660000002</v>
+      </c>
+      <c r="M23" s="43">
+        <v>302760.36390400003</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="62"/>
+      <c r="C24" s="58">
+        <v>4.7082959999999998</v>
+      </c>
+      <c r="D24" s="59">
+        <v>0.95832399999999995</v>
+      </c>
+      <c r="E24" s="60">
+        <v>7.2614010000000002</v>
+      </c>
+      <c r="F24" s="60">
+        <v>39.248122000000002</v>
+      </c>
+      <c r="G24" s="59">
+        <v>2.5045000000000001E-2</v>
+      </c>
+      <c r="H24" s="61">
+        <v>172.21079900000001</v>
+      </c>
+      <c r="I24" s="62">
+        <v>72.721221</v>
+      </c>
+      <c r="J24" s="60">
+        <v>112.154794</v>
+      </c>
+      <c r="K24" s="60">
+        <v>606.20041400000002</v>
+      </c>
+      <c r="L24" s="60">
+        <v>0.38682800000000001</v>
+      </c>
+      <c r="M24" s="61">
+        <v>2659.8536439999998</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="26"/>
+      <c r="C25" s="30">
+        <v>7.4317700000000002</v>
+      </c>
+      <c r="D25" s="27">
+        <v>2.7831999999999999E-2</v>
+      </c>
+      <c r="E25" s="28">
+        <v>14.275588000000001</v>
+      </c>
+      <c r="F25" s="28">
+        <v>71.306608999999995</v>
+      </c>
+      <c r="G25" s="27">
+        <v>11.995604999999999</v>
+      </c>
+      <c r="H25" s="29">
+        <v>88.558138999999997</v>
+      </c>
+      <c r="I25" s="31">
+        <v>299.058198</v>
+      </c>
+      <c r="J25" s="28">
+        <v>574.456906</v>
+      </c>
+      <c r="K25" s="28">
+        <v>2869.4139049999999</v>
+      </c>
+      <c r="L25" s="28">
+        <v>482.70918699999999</v>
+      </c>
+      <c r="M25" s="29">
+        <v>3563.6246289999999</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="26"/>
+      <c r="C26" s="30">
+        <v>1.9961070000000001</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="28">
+        <v>1.9633780000000001</v>
+      </c>
+      <c r="F26" s="28">
+        <v>246.317702</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="29">
+        <v>49.752363000000003</v>
+      </c>
+      <c r="I26" s="31">
+        <v>40.297884000000003</v>
+      </c>
+      <c r="J26" s="28">
+        <v>39.637143999999999</v>
+      </c>
+      <c r="K26" s="28">
+        <v>4972.7209290000001</v>
+      </c>
+      <c r="L26" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="29">
+        <v>1004.412447</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="26"/>
+      <c r="C27" s="30">
+        <v>8.8851759999999995</v>
+      </c>
+      <c r="D27" s="27">
+        <v>0</v>
+      </c>
+      <c r="E27" s="28">
+        <v>19.057639000000002</v>
+      </c>
+      <c r="F27" s="28">
+        <v>66.709125999999998</v>
+      </c>
+      <c r="G27" s="27">
+        <v>8.1842999999999999E-2</v>
+      </c>
+      <c r="H27" s="29">
+        <v>73.409895000000006</v>
+      </c>
+      <c r="I27" s="31">
+        <v>10384.247283999999</v>
+      </c>
+      <c r="J27" s="28">
+        <v>22272.969951999999</v>
+      </c>
+      <c r="K27" s="28">
+        <v>77964.021166000006</v>
+      </c>
+      <c r="L27" s="28">
+        <v>95.651776999999996</v>
+      </c>
+      <c r="M27" s="29">
+        <v>85795.315977000006</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="26"/>
+      <c r="C28" s="30">
+        <v>5.5193580000000004</v>
+      </c>
+      <c r="D28" s="27">
+        <v>0.13724600000000001</v>
+      </c>
+      <c r="E28" s="28">
+        <v>7.6047390000000004</v>
+      </c>
+      <c r="F28" s="28">
+        <v>44.447349000000003</v>
+      </c>
+      <c r="G28" s="27">
+        <v>2.25414</v>
+      </c>
+      <c r="H28" s="29">
+        <v>86.553903000000005</v>
+      </c>
+      <c r="I28" s="31">
+        <v>6725.4926649999998</v>
+      </c>
+      <c r="J28" s="28">
+        <v>9266.5897100000002</v>
+      </c>
+      <c r="K28" s="28">
+        <v>54160.348523000001</v>
+      </c>
+      <c r="L28" s="28">
+        <v>2746.733518</v>
+      </c>
+      <c r="M28" s="29">
+        <v>105468.35798099999</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="26"/>
+      <c r="C29" s="30">
+        <v>2.9933169999999998</v>
+      </c>
+      <c r="D29" s="27">
+        <v>0.17899200000000001</v>
+      </c>
+      <c r="E29" s="28">
+        <v>7.9496789999999997</v>
+      </c>
+      <c r="F29" s="28">
+        <v>58.636119000000001</v>
+      </c>
+      <c r="G29" s="27">
+        <v>0.59087999999999996</v>
+      </c>
+      <c r="H29" s="29">
+        <v>79.461123000000001</v>
+      </c>
+      <c r="I29" s="31">
+        <v>819.77220999999997</v>
+      </c>
+      <c r="J29" s="28">
+        <v>2177.1590310000001</v>
+      </c>
+      <c r="K29" s="28">
+        <v>16058.528804</v>
+      </c>
+      <c r="L29" s="28">
+        <v>161.82278400000001</v>
+      </c>
+      <c r="M29" s="29">
+        <v>21761.823391000002</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="26"/>
+      <c r="C30" s="30">
+        <v>3.9984980000000001</v>
+      </c>
+      <c r="D30" s="27">
+        <v>0</v>
+      </c>
+      <c r="E30" s="28">
+        <v>10.676423</v>
+      </c>
+      <c r="F30" s="28">
+        <v>59.401541000000002</v>
+      </c>
+      <c r="G30" s="27">
+        <v>2.4765739999999998</v>
+      </c>
+      <c r="H30" s="29">
+        <v>120.54741799999999</v>
+      </c>
+      <c r="I30" s="31">
+        <v>765.35630000000003</v>
+      </c>
+      <c r="J30" s="28">
+        <v>2043.5842029999999</v>
+      </c>
+      <c r="K30" s="28">
+        <v>11370.106051000001</v>
+      </c>
+      <c r="L30" s="28">
+        <v>474.04335099999997</v>
+      </c>
+      <c r="M30" s="29">
+        <v>23074.093098000001</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="26"/>
+      <c r="C31" s="30">
+        <v>7.2290999999999999</v>
+      </c>
+      <c r="D31" s="27">
+        <v>0.45655299999999999</v>
+      </c>
+      <c r="E31" s="28">
+        <v>7.8318989999999999</v>
+      </c>
+      <c r="F31" s="28">
+        <v>58.776288000000001</v>
+      </c>
+      <c r="G31" s="27">
+        <v>2.1825169999999998</v>
+      </c>
+      <c r="H31" s="29">
+        <v>49.283287000000001</v>
+      </c>
+      <c r="I31" s="31">
+        <v>1336.24818</v>
+      </c>
+      <c r="J31" s="28">
+        <v>1447.671229</v>
+      </c>
+      <c r="K31" s="28">
+        <v>10864.384303000001</v>
+      </c>
+      <c r="L31" s="28">
+        <v>403.42280799999997</v>
+      </c>
+      <c r="M31" s="29">
+        <v>9109.6686399999999</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="26"/>
+      <c r="C32" s="30">
+        <v>4.9146979999999996</v>
+      </c>
+      <c r="D32" s="27">
+        <v>0</v>
+      </c>
+      <c r="E32" s="28">
+        <v>28.478020999999998</v>
+      </c>
+      <c r="F32" s="28">
+        <v>140.17482699999999</v>
+      </c>
+      <c r="G32" s="27">
+        <v>1.7304740000000001</v>
+      </c>
+      <c r="H32" s="29">
+        <v>276.66329400000001</v>
+      </c>
+      <c r="I32" s="31">
+        <v>78.004857000000001</v>
+      </c>
+      <c r="J32" s="28">
+        <v>451.99608599999999</v>
+      </c>
+      <c r="K32" s="28">
+        <v>2224.8204430000001</v>
+      </c>
+      <c r="L32" s="28">
+        <v>27.465643</v>
+      </c>
+      <c r="M32" s="29">
+        <v>4391.1314089999996</v>
+      </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="26"/>
+      <c r="C33" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="27">
+        <v>5.4795439999999997</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="28">
+        <v>0</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="29">
+        <v>0</v>
+      </c>
+      <c r="I33" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="28">
+        <v>0</v>
+      </c>
+      <c r="L33" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="29">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="50"/>
+      <c r="C34" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="50">
+        <v>708.47980399999994</v>
+      </c>
+      <c r="J34" s="48">
+        <v>145.54163800000001</v>
+      </c>
+      <c r="K34" s="48">
+        <v>16851.410554999999</v>
+      </c>
+      <c r="L34" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="49">
+        <v>11154.128364</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="26"/>
+      <c r="C35" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="27">
+        <v>0.19648499999999999</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="27">
+        <v>0.17526800000000001</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="28">
+        <v>77.610561000000004</v>
+      </c>
+      <c r="M35" s="29" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="26"/>
+      <c r="C36" s="30">
+        <v>6.8747480000000003</v>
+      </c>
+      <c r="D36" s="27">
+        <v>2.457E-3</v>
+      </c>
+      <c r="E36" s="28">
+        <v>16.272566999999999</v>
+      </c>
+      <c r="F36" s="28">
+        <v>50.796714000000001</v>
+      </c>
+      <c r="G36" s="27">
+        <v>0.54995400000000005</v>
+      </c>
+      <c r="H36" s="29">
+        <v>100.537886</v>
+      </c>
+      <c r="I36" s="31">
+        <v>7892.0235130000001</v>
+      </c>
+      <c r="J36" s="28">
+        <v>18680.464070999999</v>
+      </c>
+      <c r="K36" s="28">
+        <v>58313.242687999998</v>
+      </c>
+      <c r="L36" s="28">
+        <v>631.33217100000002</v>
+      </c>
+      <c r="M36" s="29">
+        <v>115414.75530999999</v>
+      </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="37"/>
+      <c r="C37" s="33">
+        <v>4.3793949999999997</v>
+      </c>
+      <c r="D37" s="34">
+        <v>6.5230999999999997E-2</v>
+      </c>
+      <c r="E37" s="35">
+        <v>8.2900899999999993</v>
+      </c>
+      <c r="F37" s="35">
+        <v>29.265633000000001</v>
+      </c>
+      <c r="G37" s="34">
+        <v>1.927997</v>
+      </c>
+      <c r="H37" s="36">
+        <v>86.209659000000002</v>
+      </c>
+      <c r="I37" s="37">
+        <v>2902.4912479999998</v>
+      </c>
+      <c r="J37" s="35">
+        <v>5494.3476199999996</v>
+      </c>
+      <c r="K37" s="35">
+        <v>19396.117352000001</v>
+      </c>
+      <c r="L37" s="35">
+        <v>1277.800651</v>
+      </c>
+      <c r="M37" s="36">
+        <v>57136.385463999999</v>
+      </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="39"/>
-      <c r="B38" s="40" t="s">
+      <c r="A38" s="38"/>
+      <c r="B38" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="44"/>
+      <c r="C38" s="40">
+        <v>6.4581400000000002</v>
+      </c>
+      <c r="D38" s="41">
+        <v>0.21519099999999999</v>
+      </c>
+      <c r="E38" s="42">
+        <v>12.790834</v>
+      </c>
+      <c r="F38" s="42">
+        <v>52.353344999999997</v>
+      </c>
+      <c r="G38" s="41">
+        <v>1.0617890000000001</v>
+      </c>
+      <c r="H38" s="43">
+        <v>83.245490000000004</v>
+      </c>
+      <c r="I38" s="44">
+        <v>32024.193362999998</v>
+      </c>
+      <c r="J38" s="42">
+        <v>62706.572383999999</v>
+      </c>
+      <c r="K38" s="42">
+        <v>275651.31513399997</v>
+      </c>
+      <c r="L38" s="42">
+        <v>6378.9792790000001</v>
+      </c>
+      <c r="M38" s="43">
+        <v>440533.55035400001</v>
+      </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="67"/>
-      <c r="L39" s="67"/>
-      <c r="M39" s="68"/>
+      <c r="C39" s="64">
+        <v>9.1928070000000002</v>
+      </c>
+      <c r="D39" s="65">
+        <v>0</v>
+      </c>
+      <c r="E39" s="66">
+        <v>16.336525000000002</v>
+      </c>
+      <c r="F39" s="66">
+        <v>125.416802</v>
+      </c>
+      <c r="G39" s="65">
+        <v>1.700429</v>
+      </c>
+      <c r="H39" s="67">
+        <v>153.597058</v>
+      </c>
+      <c r="I39" s="68">
+        <v>23835.887323999999</v>
+      </c>
+      <c r="J39" s="66">
+        <v>42358.720337999999</v>
+      </c>
+      <c r="K39" s="66">
+        <v>325191.24618299998</v>
+      </c>
+      <c r="L39" s="66">
+        <v>4409.0146070000001</v>
+      </c>
+      <c r="M39" s="67">
+        <v>398259.40620299999</v>
+      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="26"/>
+      <c r="C40" s="30">
+        <v>4.161016</v>
+      </c>
+      <c r="D40" s="27">
+        <v>0.10381899999999999</v>
+      </c>
+      <c r="E40" s="28">
+        <v>4.3342510000000001</v>
+      </c>
+      <c r="F40" s="28">
+        <v>48.672097000000001</v>
+      </c>
+      <c r="G40" s="27">
+        <v>0.95291700000000001</v>
+      </c>
+      <c r="H40" s="29">
+        <v>39.955019</v>
+      </c>
+      <c r="I40" s="31">
+        <v>26644.742590000002</v>
+      </c>
+      <c r="J40" s="28">
+        <v>27754.040664</v>
+      </c>
+      <c r="K40" s="28">
+        <v>311668.01719899999</v>
+      </c>
+      <c r="L40" s="28">
+        <v>6101.933403</v>
+      </c>
+      <c r="M40" s="29">
+        <v>255848.87154399999</v>
+      </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="70" t="s">
+      <c r="B41" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="50"/>
+      <c r="C41" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="49" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="70" t="s">
+      <c r="B42" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="50"/>
+      <c r="C42" s="46">
+        <v>2.1650390000000002</v>
+      </c>
+      <c r="D42" s="47">
+        <v>0.43421399999999999</v>
+      </c>
+      <c r="E42" s="48">
+        <v>17.553265</v>
+      </c>
+      <c r="F42" s="48">
+        <v>46.698498999999998</v>
+      </c>
+      <c r="G42" s="47">
+        <v>0.64446400000000004</v>
+      </c>
+      <c r="H42" s="49">
+        <v>205.87768399999999</v>
+      </c>
+      <c r="I42" s="50">
+        <v>309.106922</v>
+      </c>
+      <c r="J42" s="48">
+        <v>2506.1144119999999</v>
+      </c>
+      <c r="K42" s="48">
+        <v>6667.2387790000002</v>
+      </c>
+      <c r="L42" s="48">
+        <v>92.011357000000004</v>
+      </c>
+      <c r="M42" s="49">
+        <v>29393.568212999999</v>
+      </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="26"/>
+      <c r="C43" s="30">
+        <v>4.4026149999999999</v>
+      </c>
+      <c r="D43" s="27">
+        <v>0.46731200000000001</v>
+      </c>
+      <c r="E43" s="28">
+        <v>22.407736</v>
+      </c>
+      <c r="F43" s="28">
+        <v>54.218451000000002</v>
+      </c>
+      <c r="G43" s="27">
+        <v>9.7692610000000002</v>
+      </c>
+      <c r="H43" s="29">
+        <v>232.54852199999999</v>
+      </c>
+      <c r="I43" s="31">
+        <v>5439.5863419999996</v>
+      </c>
+      <c r="J43" s="28">
+        <v>27685.555006999999</v>
+      </c>
+      <c r="K43" s="28">
+        <v>66988.812875000003</v>
+      </c>
+      <c r="L43" s="28">
+        <v>12070.268268</v>
+      </c>
+      <c r="M43" s="29">
+        <v>287321.94618099998</v>
+      </c>
     </row>
     <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="52" t="s">
+      <c r="B44" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="53"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="56"/>
+      <c r="C44" s="52">
+        <v>3.3230390000000001</v>
+      </c>
+      <c r="D44" s="53">
+        <v>2.6909999999999998E-3</v>
+      </c>
+      <c r="E44" s="54">
+        <v>6.5512519999999999</v>
+      </c>
+      <c r="F44" s="54">
+        <v>47.766367000000002</v>
+      </c>
+      <c r="G44" s="53">
+        <v>1.2323869999999999</v>
+      </c>
+      <c r="H44" s="55">
+        <v>102.70343200000001</v>
+      </c>
+      <c r="I44" s="56">
+        <v>2469.970006</v>
+      </c>
+      <c r="J44" s="54">
+        <v>4869.457257</v>
+      </c>
+      <c r="K44" s="54">
+        <v>35504.094440000001</v>
+      </c>
+      <c r="L44" s="54">
+        <v>916.01629500000001</v>
+      </c>
+      <c r="M44" s="55">
+        <v>76338.066298000005</v>
+      </c>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="39"/>
-      <c r="B45" s="40" t="s">
+      <c r="A45" s="38"/>
+      <c r="B45" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="41"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="44"/>
+      <c r="C45" s="40">
+        <v>5.3267449999999998</v>
+      </c>
+      <c r="D45" s="41">
+        <v>0.11909599999999999</v>
+      </c>
+      <c r="E45" s="42">
+        <v>9.6069569999999995</v>
+      </c>
+      <c r="F45" s="42">
+        <v>67.658320000000003</v>
+      </c>
+      <c r="G45" s="41">
+        <v>2.1851259999999999</v>
+      </c>
+      <c r="H45" s="43">
+        <v>95.287863000000002</v>
+      </c>
+      <c r="I45" s="44">
+        <v>58699.293184000002</v>
+      </c>
+      <c r="J45" s="42">
+        <v>105173.88767700001</v>
+      </c>
+      <c r="K45" s="42">
+        <v>746019.40947499999</v>
+      </c>
+      <c r="L45" s="42">
+        <v>23589.243931000001</v>
+      </c>
+      <c r="M45" s="43">
+        <v>1047161.858439</v>
+      </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="61"/>
-      <c r="L46" s="61"/>
-      <c r="M46" s="62"/>
+      <c r="C46" s="58">
+        <v>2.6005020000000001</v>
+      </c>
+      <c r="D46" s="59">
+        <v>0</v>
+      </c>
+      <c r="E46" s="60">
+        <v>14.10665</v>
+      </c>
+      <c r="F46" s="60">
+        <v>51.117860999999998</v>
+      </c>
+      <c r="G46" s="59">
+        <v>1.859381</v>
+      </c>
+      <c r="H46" s="61">
+        <v>88.157821999999996</v>
+      </c>
+      <c r="I46" s="62">
+        <v>564.26262499999996</v>
+      </c>
+      <c r="J46" s="60">
+        <v>3060.8921909999999</v>
+      </c>
+      <c r="K46" s="60">
+        <v>11091.666153</v>
+      </c>
+      <c r="L46" s="60">
+        <v>403.452699</v>
+      </c>
+      <c r="M46" s="61">
+        <v>19128.677952999999</v>
+      </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="26"/>
+      <c r="C47" s="30">
+        <v>4.7611059999999998</v>
+      </c>
+      <c r="D47" s="27">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="E47" s="28">
+        <v>13.866897</v>
+      </c>
+      <c r="F47" s="28">
+        <v>51.348269000000002</v>
+      </c>
+      <c r="G47" s="27">
+        <v>0.623201</v>
+      </c>
+      <c r="H47" s="29">
+        <v>78.294770999999997</v>
+      </c>
+      <c r="I47" s="31">
+        <v>837.88962400000003</v>
+      </c>
+      <c r="J47" s="28">
+        <v>2440.3844810000001</v>
+      </c>
+      <c r="K47" s="28">
+        <v>9036.592729</v>
+      </c>
+      <c r="L47" s="28">
+        <v>109.674898</v>
+      </c>
+      <c r="M47" s="29">
+        <v>13778.808299</v>
+      </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="70" t="s">
+      <c r="B48" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="49"/>
-      <c r="M48" s="50"/>
+      <c r="C48" s="46">
+        <v>2.364236</v>
+      </c>
+      <c r="D48" s="47">
+        <v>0.162272</v>
+      </c>
+      <c r="E48" s="48">
+        <v>20.337996</v>
+      </c>
+      <c r="F48" s="48">
+        <v>71.600358999999997</v>
+      </c>
+      <c r="G48" s="47">
+        <v>1.9406019999999999</v>
+      </c>
+      <c r="H48" s="49">
+        <v>196.481538</v>
+      </c>
+      <c r="I48" s="50">
+        <v>72.847731999999993</v>
+      </c>
+      <c r="J48" s="48">
+        <v>626.66204800000003</v>
+      </c>
+      <c r="K48" s="48">
+        <v>2206.1775480000001</v>
+      </c>
+      <c r="L48" s="48">
+        <v>59.794564000000001</v>
+      </c>
+      <c r="M48" s="49">
+        <v>6054.0642809999999</v>
+      </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="26"/>
+      <c r="C49" s="30">
+        <v>4.4397039999999999</v>
+      </c>
+      <c r="D49" s="27">
+        <v>0.22605700000000001</v>
+      </c>
+      <c r="E49" s="28">
+        <v>12.638935999999999</v>
+      </c>
+      <c r="F49" s="28">
+        <v>29.654467</v>
+      </c>
+      <c r="G49" s="27">
+        <v>2.061931</v>
+      </c>
+      <c r="H49" s="29">
+        <v>76.206622999999993</v>
+      </c>
+      <c r="I49" s="31">
+        <v>3212.237498</v>
+      </c>
+      <c r="J49" s="28">
+        <v>9144.5883740000008</v>
+      </c>
+      <c r="K49" s="28">
+        <v>21455.748222999999</v>
+      </c>
+      <c r="L49" s="28">
+        <v>1491.8588970000001</v>
+      </c>
+      <c r="M49" s="29">
+        <v>55137.409108</v>
+      </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="26"/>
+      <c r="C50" s="30">
+        <v>5.3442550000000004</v>
+      </c>
+      <c r="D50" s="27">
+        <v>0</v>
+      </c>
+      <c r="E50" s="28">
+        <v>6.3009029999999999</v>
+      </c>
+      <c r="F50" s="28">
+        <v>52.703302000000001</v>
+      </c>
+      <c r="G50" s="27">
+        <v>2.0413779999999999</v>
+      </c>
+      <c r="H50" s="29">
+        <v>66.521863999999994</v>
+      </c>
+      <c r="I50" s="31">
+        <v>177.03255200000001</v>
+      </c>
+      <c r="J50" s="28">
+        <v>208.72225499999999</v>
+      </c>
+      <c r="K50" s="28">
+        <v>1745.837207</v>
+      </c>
+      <c r="L50" s="28">
+        <v>67.622201000000004</v>
+      </c>
+      <c r="M50" s="29">
+        <v>2203.5876760000001</v>
+      </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
@@ -2569,1078 +3605,2131 @@
       <c r="B51" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="32"/>
+      <c r="C51" s="21">
+        <v>0.98614800000000002</v>
+      </c>
+      <c r="D51" s="22">
+        <v>0.69852899999999996</v>
+      </c>
+      <c r="E51" s="23">
+        <v>9.9858360000000008</v>
+      </c>
+      <c r="F51" s="23">
+        <v>22.701547999999999</v>
+      </c>
+      <c r="G51" s="22">
+        <v>3.0789430000000002</v>
+      </c>
+      <c r="H51" s="24">
+        <v>124.31267099999999</v>
+      </c>
+      <c r="I51" s="25">
+        <v>1179.3608280000001</v>
+      </c>
+      <c r="J51" s="23">
+        <v>11942.329062999999</v>
+      </c>
+      <c r="K51" s="23">
+        <v>27149.388045</v>
+      </c>
+      <c r="L51" s="23">
+        <v>3682.1897960000001</v>
+      </c>
+      <c r="M51" s="24">
+        <v>148668.85617399999</v>
+      </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="28"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="26"/>
+      <c r="C52" s="30">
+        <v>1.901354</v>
+      </c>
+      <c r="D52" s="27">
+        <v>0.105049</v>
+      </c>
+      <c r="E52" s="28">
+        <v>7.1263629999999996</v>
+      </c>
+      <c r="F52" s="28">
+        <v>49.591959000000003</v>
+      </c>
+      <c r="G52" s="27">
+        <v>1.119054</v>
+      </c>
+      <c r="H52" s="29">
+        <v>71.608048999999994</v>
+      </c>
+      <c r="I52" s="31">
+        <v>438.01835399999999</v>
+      </c>
+      <c r="J52" s="28">
+        <v>1641.713358</v>
+      </c>
+      <c r="K52" s="28">
+        <v>11424.590904999999</v>
+      </c>
+      <c r="L52" s="28">
+        <v>257.79852699999998</v>
+      </c>
+      <c r="M52" s="29">
+        <v>16496.478819</v>
+      </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="26"/>
+      <c r="C53" s="30">
+        <v>1.6172059999999999</v>
+      </c>
+      <c r="D53" s="27">
+        <v>0</v>
+      </c>
+      <c r="E53" s="28">
+        <v>1.3183469999999999</v>
+      </c>
+      <c r="F53" s="28">
+        <v>53.511592</v>
+      </c>
+      <c r="G53" s="27">
+        <v>0</v>
+      </c>
+      <c r="H53" s="29">
+        <v>17.141102</v>
+      </c>
+      <c r="I53" s="31">
+        <v>41.094737000000002</v>
+      </c>
+      <c r="J53" s="28">
+        <v>33.500436000000001</v>
+      </c>
+      <c r="K53" s="28">
+        <v>1359.7802019999999</v>
+      </c>
+      <c r="L53" s="28">
+        <v>0</v>
+      </c>
+      <c r="M53" s="29">
+        <v>435.57166000000001</v>
+      </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="26"/>
+      <c r="C54" s="30">
+        <v>6.4754110000000003</v>
+      </c>
+      <c r="D54" s="27">
+        <v>0</v>
+      </c>
+      <c r="E54" s="28">
+        <v>11.697858999999999</v>
+      </c>
+      <c r="F54" s="28">
+        <v>78.012513999999996</v>
+      </c>
+      <c r="G54" s="27">
+        <v>14.421023</v>
+      </c>
+      <c r="H54" s="29">
+        <v>168.22540100000001</v>
+      </c>
+      <c r="I54" s="31">
+        <v>354.18066399999998</v>
+      </c>
+      <c r="J54" s="28">
+        <v>639.82898</v>
+      </c>
+      <c r="K54" s="28">
+        <v>4266.9920920000004</v>
+      </c>
+      <c r="L54" s="28">
+        <v>788.775802</v>
+      </c>
+      <c r="M54" s="29">
+        <v>9201.2977599999995</v>
+      </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="26"/>
+      <c r="C55" s="30">
+        <v>4.1653140000000004</v>
+      </c>
+      <c r="D55" s="27">
+        <v>0.17088100000000001</v>
+      </c>
+      <c r="E55" s="28">
+        <v>8.6803519999999992</v>
+      </c>
+      <c r="F55" s="28">
+        <v>42.968167999999999</v>
+      </c>
+      <c r="G55" s="27">
+        <v>0.32784400000000002</v>
+      </c>
+      <c r="H55" s="29">
+        <v>63.747270999999998</v>
+      </c>
+      <c r="I55" s="31">
+        <v>1174.655438</v>
+      </c>
+      <c r="J55" s="28">
+        <v>2447.9357679999998</v>
+      </c>
+      <c r="K55" s="28">
+        <v>12117.404374</v>
+      </c>
+      <c r="L55" s="28">
+        <v>92.454795000000004</v>
+      </c>
+      <c r="M55" s="29">
+        <v>17977.290388000001</v>
+      </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="28"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="26"/>
+      <c r="C56" s="30">
+        <v>8.2940670000000001</v>
+      </c>
+      <c r="D56" s="27">
+        <v>0</v>
+      </c>
+      <c r="E56" s="28">
+        <v>15.081996999999999</v>
+      </c>
+      <c r="F56" s="28">
+        <v>67.449751000000006</v>
+      </c>
+      <c r="G56" s="27">
+        <v>2.7054999999999999E-2</v>
+      </c>
+      <c r="H56" s="29">
+        <v>153.453362</v>
+      </c>
+      <c r="I56" s="31">
+        <v>1384.8915689999999</v>
+      </c>
+      <c r="J56" s="28">
+        <v>2518.297975</v>
+      </c>
+      <c r="K56" s="28">
+        <v>11262.341109000001</v>
+      </c>
+      <c r="L56" s="28">
+        <v>4.5174409999999998</v>
+      </c>
+      <c r="M56" s="29">
+        <v>25622.687037</v>
+      </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="26"/>
+      <c r="C57" s="30">
+        <v>1.1825969999999999</v>
+      </c>
+      <c r="D57" s="27">
+        <v>3.2514000000000001E-2</v>
+      </c>
+      <c r="E57" s="28">
+        <v>8.6206549999999993</v>
+      </c>
+      <c r="F57" s="28">
+        <v>56.345281</v>
+      </c>
+      <c r="G57" s="27">
+        <v>0.834619</v>
+      </c>
+      <c r="H57" s="29">
+        <v>97.282466999999997</v>
+      </c>
+      <c r="I57" s="31">
+        <v>14548.679736</v>
+      </c>
+      <c r="J57" s="28">
+        <v>106054.005832</v>
+      </c>
+      <c r="K57" s="28">
+        <v>693177.31763499998</v>
+      </c>
+      <c r="L57" s="28">
+        <v>10267.743925999999</v>
+      </c>
+      <c r="M57" s="29">
+        <v>1196799.690889</v>
+      </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="26"/>
+      <c r="C58" s="30">
+        <v>4.1179819999999996</v>
+      </c>
+      <c r="D58" s="27">
+        <v>0.59605300000000006</v>
+      </c>
+      <c r="E58" s="28">
+        <v>14.974182000000001</v>
+      </c>
+      <c r="F58" s="28">
+        <v>49.845519000000003</v>
+      </c>
+      <c r="G58" s="27">
+        <v>5.6879860000000004</v>
+      </c>
+      <c r="H58" s="29">
+        <v>113.588583</v>
+      </c>
+      <c r="I58" s="31">
+        <v>1396.7331280000001</v>
+      </c>
+      <c r="J58" s="28">
+        <v>5078.9275770000004</v>
+      </c>
+      <c r="K58" s="28">
+        <v>16906.553222999999</v>
+      </c>
+      <c r="L58" s="28">
+        <v>1929.245314</v>
+      </c>
+      <c r="M58" s="29">
+        <v>38526.859522999999</v>
+      </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C59" s="28"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="26"/>
+      <c r="C59" s="30">
+        <v>1.571906</v>
+      </c>
+      <c r="D59" s="27">
+        <v>7.2899000000000005E-2</v>
+      </c>
+      <c r="E59" s="28">
+        <v>2.9173490000000002</v>
+      </c>
+      <c r="F59" s="28">
+        <v>37.950527000000001</v>
+      </c>
+      <c r="G59" s="27">
+        <v>1.3953359999999999</v>
+      </c>
+      <c r="H59" s="29">
+        <v>46.789617999999997</v>
+      </c>
+      <c r="I59" s="31">
+        <v>172.38267999999999</v>
+      </c>
+      <c r="J59" s="28">
+        <v>319.93029899999999</v>
+      </c>
+      <c r="K59" s="28">
+        <v>4161.8348759999999</v>
+      </c>
+      <c r="L59" s="28">
+        <v>153.019204</v>
+      </c>
+      <c r="M59" s="29">
+        <v>5131.1714009999996</v>
+      </c>
     </row>
     <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="34"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="37"/>
+      <c r="C60" s="33">
+        <v>3.1908500000000002</v>
+      </c>
+      <c r="D60" s="34">
+        <v>0</v>
+      </c>
+      <c r="E60" s="35">
+        <v>8.6222300000000001</v>
+      </c>
+      <c r="F60" s="35">
+        <v>86.942232000000004</v>
+      </c>
+      <c r="G60" s="34">
+        <v>7.0665449999999996</v>
+      </c>
+      <c r="H60" s="36">
+        <v>82.217147999999995</v>
+      </c>
+      <c r="I60" s="37">
+        <v>319.78630500000003</v>
+      </c>
+      <c r="J60" s="35">
+        <v>864.11796400000003</v>
+      </c>
+      <c r="K60" s="35">
+        <v>8713.3327339999996</v>
+      </c>
+      <c r="L60" s="35">
+        <v>708.207583</v>
+      </c>
+      <c r="M60" s="36">
+        <v>8239.7854029999999</v>
+      </c>
     </row>
     <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="39"/>
-      <c r="B61" s="40" t="s">
+      <c r="A61" s="38"/>
+      <c r="B61" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="C61" s="41"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="43"/>
-      <c r="K61" s="43"/>
-      <c r="L61" s="43"/>
-      <c r="M61" s="44"/>
+      <c r="C61" s="40">
+        <v>1.9633879999999999</v>
+      </c>
+      <c r="D61" s="41">
+        <v>0.14913399999999999</v>
+      </c>
+      <c r="E61" s="42">
+        <v>9.6187290000000001</v>
+      </c>
+      <c r="F61" s="42">
+        <v>49.976098999999998</v>
+      </c>
+      <c r="G61" s="41">
+        <v>1.4738979999999999</v>
+      </c>
+      <c r="H61" s="43">
+        <v>97.194764000000006</v>
+      </c>
+      <c r="I61" s="44">
+        <v>25874.053468999999</v>
+      </c>
+      <c r="J61" s="42">
+        <v>147021.83660000001</v>
+      </c>
+      <c r="K61" s="42">
+        <v>836075.55705499998</v>
+      </c>
+      <c r="L61" s="42">
+        <v>20016.355645</v>
+      </c>
+      <c r="M61" s="43">
+        <v>1563402.2363710001</v>
+      </c>
     </row>
     <row r="62" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="71"/>
-      <c r="B62" s="72" t="s">
+      <c r="A62" s="70"/>
+      <c r="B62" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="73"/>
-      <c r="D62" s="74"/>
-      <c r="E62" s="75"/>
-      <c r="F62" s="75"/>
-      <c r="G62" s="74"/>
-      <c r="H62" s="76"/>
-      <c r="I62" s="77"/>
-      <c r="J62" s="75"/>
-      <c r="K62" s="75"/>
-      <c r="L62" s="75"/>
-      <c r="M62" s="76"/>
+      <c r="C62" s="72">
+        <v>4.050853</v>
+      </c>
+      <c r="D62" s="73">
+        <v>0.19359299999999999</v>
+      </c>
+      <c r="E62" s="74">
+        <v>10.967457</v>
+      </c>
+      <c r="F62" s="74">
+        <v>60.517581999999997</v>
+      </c>
+      <c r="G62" s="73">
+        <v>1.950814</v>
+      </c>
+      <c r="H62" s="75">
+        <v>110.582194</v>
+      </c>
+      <c r="I62" s="76">
+        <v>141767.472025</v>
+      </c>
+      <c r="J62" s="74">
+        <v>424128.41223100002</v>
+      </c>
+      <c r="K62" s="74">
+        <v>2362489.0467039999</v>
+      </c>
+      <c r="L62" s="74">
+        <v>136050.51723100001</v>
+      </c>
+      <c r="M62" s="75">
+        <v>4345194.0097549995</v>
+      </c>
     </row>
     <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="71"/>
-      <c r="B63" s="72" t="s">
+      <c r="A63" s="70"/>
+      <c r="B63" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="73"/>
-      <c r="D63" s="74"/>
-      <c r="E63" s="75"/>
-      <c r="F63" s="75"/>
-      <c r="G63" s="74"/>
-      <c r="H63" s="76"/>
-      <c r="I63" s="77"/>
-      <c r="J63" s="75"/>
-      <c r="K63" s="75"/>
-      <c r="L63" s="75"/>
-      <c r="M63" s="76"/>
+      <c r="C63" s="72">
+        <v>6.3901110000000001</v>
+      </c>
+      <c r="D63" s="73">
+        <v>0.219694</v>
+      </c>
+      <c r="E63" s="74">
+        <v>19.898705</v>
+      </c>
+      <c r="F63" s="74">
+        <v>84.340939000000006</v>
+      </c>
+      <c r="G63" s="73">
+        <v>2.8995160000000002</v>
+      </c>
+      <c r="H63" s="75">
+        <v>185.51520099999999</v>
+      </c>
+      <c r="I63" s="76">
+        <v>4830545.7647839999</v>
+      </c>
+      <c r="J63" s="74">
+        <v>16484859.227853</v>
+      </c>
+      <c r="K63" s="74">
+        <v>66192161.841688</v>
+      </c>
+      <c r="L63" s="74">
+        <v>1276727.03168</v>
+      </c>
+      <c r="M63" s="75">
+        <v>158007190.77550501</v>
+      </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="78"/>
-      <c r="B64" s="79" t="s">
+      <c r="A64" s="77"/>
+      <c r="B64" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="80"/>
-      <c r="D64" s="81"/>
-      <c r="E64" s="82"/>
-      <c r="F64" s="82"/>
-      <c r="G64" s="81"/>
-      <c r="H64" s="83"/>
-      <c r="I64" s="84"/>
-      <c r="J64" s="82"/>
-      <c r="K64" s="82"/>
-      <c r="L64" s="82"/>
-      <c r="M64" s="83"/>
+      <c r="C64" s="79">
+        <v>2.8029090000000001</v>
+      </c>
+      <c r="D64" s="80">
+        <v>0.44063400000000003</v>
+      </c>
+      <c r="E64" s="81">
+        <v>14.423833999999999</v>
+      </c>
+      <c r="F64" s="81">
+        <v>86.554902999999996</v>
+      </c>
+      <c r="G64" s="80">
+        <v>7.9627559999999997</v>
+      </c>
+      <c r="H64" s="82">
+        <v>190.57740699999999</v>
+      </c>
+      <c r="I64" s="83">
+        <v>137950.32297899999</v>
+      </c>
+      <c r="J64" s="81">
+        <v>792052.36499000003</v>
+      </c>
+      <c r="K64" s="81">
+        <v>3322430.6806410002</v>
+      </c>
+      <c r="L64" s="81">
+        <v>400722.21903600002</v>
+      </c>
+      <c r="M64" s="82">
+        <v>9690192.1980489995</v>
+      </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="78"/>
-      <c r="B65" s="85" t="s">
+      <c r="A65" s="77"/>
+      <c r="B65" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="C65" s="86"/>
-      <c r="D65" s="87"/>
-      <c r="E65" s="88"/>
-      <c r="F65" s="88"/>
-      <c r="G65" s="87"/>
-      <c r="H65" s="89"/>
-      <c r="I65" s="90"/>
-      <c r="J65" s="88"/>
-      <c r="K65" s="88"/>
-      <c r="L65" s="88"/>
-      <c r="M65" s="89"/>
+      <c r="C65" s="85">
+        <v>11.181799</v>
+      </c>
+      <c r="D65" s="86">
+        <v>0.21887799999999999</v>
+      </c>
+      <c r="E65" s="87">
+        <v>24.329308000000001</v>
+      </c>
+      <c r="F65" s="87">
+        <v>114.855711</v>
+      </c>
+      <c r="G65" s="86">
+        <v>2.6617479999999998</v>
+      </c>
+      <c r="H65" s="88">
+        <v>174.626092</v>
+      </c>
+      <c r="I65" s="89">
+        <v>2613160.7084130002</v>
+      </c>
+      <c r="J65" s="87">
+        <v>5361812.7395010004</v>
+      </c>
+      <c r="K65" s="87">
+        <v>26277267.105792999</v>
+      </c>
+      <c r="L65" s="87">
+        <v>507300.62127800001</v>
+      </c>
+      <c r="M65" s="88">
+        <v>37292201.596689999</v>
+      </c>
     </row>
     <row r="66" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="78"/>
-      <c r="B66" s="91" t="s">
+      <c r="A66" s="77"/>
+      <c r="B66" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="C66" s="92"/>
-      <c r="D66" s="93"/>
-      <c r="E66" s="94"/>
-      <c r="F66" s="94"/>
-      <c r="G66" s="93"/>
-      <c r="H66" s="95"/>
-      <c r="I66" s="96"/>
-      <c r="J66" s="94"/>
-      <c r="K66" s="94"/>
-      <c r="L66" s="94"/>
-      <c r="M66" s="95"/>
+      <c r="C66" s="91">
+        <v>6.2726879999999996</v>
+      </c>
+      <c r="D66" s="92">
+        <v>0.21783</v>
+      </c>
+      <c r="E66" s="93">
+        <v>19.450384</v>
+      </c>
+      <c r="F66" s="93">
+        <v>83.140972000000005</v>
+      </c>
+      <c r="G66" s="92">
+        <v>2.831998</v>
+      </c>
+      <c r="H66" s="94">
+        <v>181.74087499999999</v>
+      </c>
+      <c r="I66" s="95">
+        <v>4972313.2368099997</v>
+      </c>
+      <c r="J66" s="93">
+        <v>16908987.640083</v>
+      </c>
+      <c r="K66" s="93">
+        <v>68554650.888392001</v>
+      </c>
+      <c r="L66" s="93">
+        <v>1412777.5489109999</v>
+      </c>
+      <c r="M66" s="94">
+        <v>162352384.78525999</v>
+      </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="78"/>
-      <c r="B67" s="85" t="s">
+      <c r="A67" s="77"/>
+      <c r="B67" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="86"/>
-      <c r="D67" s="87"/>
-      <c r="E67" s="88"/>
-      <c r="F67" s="88"/>
-      <c r="G67" s="87"/>
-      <c r="H67" s="89"/>
-      <c r="I67" s="90"/>
-      <c r="J67" s="88"/>
-      <c r="K67" s="88"/>
-      <c r="L67" s="88"/>
-      <c r="M67" s="89"/>
+      <c r="C67" s="85">
+        <v>4.7278169999999999</v>
+      </c>
+      <c r="D67" s="86">
+        <v>0.155946</v>
+      </c>
+      <c r="E67" s="87">
+        <v>7.3972449999999998</v>
+      </c>
+      <c r="F67" s="87">
+        <v>48.740442000000002</v>
+      </c>
+      <c r="G67" s="86">
+        <v>1.1147370000000001</v>
+      </c>
+      <c r="H67" s="88">
+        <v>62.387146000000001</v>
+      </c>
+      <c r="I67" s="89">
+        <v>57497.962122999998</v>
+      </c>
+      <c r="J67" s="87">
+        <v>93767.729376999996</v>
+      </c>
+      <c r="K67" s="87">
+        <v>595990.22976300004</v>
+      </c>
+      <c r="L67" s="87">
+        <v>78368.334929999997</v>
+      </c>
+      <c r="M67" s="88">
+        <v>818375.95085999998</v>
+      </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="78"/>
-      <c r="B68" s="85" t="s">
+      <c r="A68" s="77"/>
+      <c r="B68" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="86"/>
-      <c r="D68" s="87"/>
-      <c r="E68" s="88"/>
-      <c r="F68" s="88"/>
-      <c r="G68" s="87"/>
-      <c r="H68" s="89"/>
-      <c r="I68" s="90"/>
-      <c r="J68" s="88"/>
-      <c r="K68" s="88"/>
-      <c r="L68" s="88"/>
-      <c r="M68" s="89"/>
+      <c r="C68" s="85">
+        <v>3.0587689999999998</v>
+      </c>
+      <c r="D68" s="86">
+        <v>0.188248</v>
+      </c>
+      <c r="E68" s="87">
+        <v>8.4988840000000003</v>
+      </c>
+      <c r="F68" s="87">
+        <v>49.841816000000001</v>
+      </c>
+      <c r="G68" s="86">
+        <v>1.800897</v>
+      </c>
+      <c r="H68" s="88">
+        <v>85.998152000000005</v>
+      </c>
+      <c r="I68" s="89">
+        <v>61252.031579000002</v>
+      </c>
+      <c r="J68" s="87">
+        <v>211044.447201</v>
+      </c>
+      <c r="K68" s="87">
+        <v>1273550.4220710001</v>
+      </c>
+      <c r="L68" s="87">
+        <v>38908.721179</v>
+      </c>
+      <c r="M68" s="88">
+        <v>2224298.3942840002</v>
+      </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="78"/>
-      <c r="B69" s="85" t="s">
+      <c r="A69" s="77"/>
+      <c r="B69" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="86"/>
-      <c r="D69" s="87"/>
-      <c r="E69" s="88"/>
-      <c r="F69" s="88"/>
-      <c r="G69" s="87"/>
-      <c r="H69" s="89"/>
-      <c r="I69" s="90"/>
-      <c r="J69" s="88"/>
-      <c r="K69" s="88"/>
-      <c r="L69" s="88"/>
-      <c r="M69" s="89"/>
+      <c r="C69" s="85">
+        <v>5.179583</v>
+      </c>
+      <c r="D69" s="86">
+        <v>8.3088999999999996E-2</v>
+      </c>
+      <c r="E69" s="87">
+        <v>10.409081</v>
+      </c>
+      <c r="F69" s="87">
+        <v>40.825477999999997</v>
+      </c>
+      <c r="G69" s="86">
+        <v>1.4012180000000001</v>
+      </c>
+      <c r="H69" s="88">
+        <v>92.068347000000003</v>
+      </c>
+      <c r="I69" s="89">
+        <v>21761.380774000001</v>
+      </c>
+      <c r="J69" s="87">
+        <v>45228.975538999999</v>
+      </c>
+      <c r="K69" s="87">
+        <v>183606.91353799999</v>
+      </c>
+      <c r="L69" s="87">
+        <v>5085.7568160000001</v>
+      </c>
+      <c r="M69" s="88">
+        <v>402750.93029699998</v>
+      </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="78"/>
-      <c r="B70" s="85" t="s">
+      <c r="A70" s="77"/>
+      <c r="B70" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="C70" s="86"/>
-      <c r="D70" s="87"/>
-      <c r="E70" s="88"/>
-      <c r="F70" s="88"/>
-      <c r="G70" s="87"/>
-      <c r="H70" s="89"/>
-      <c r="I70" s="90"/>
-      <c r="J70" s="88"/>
-      <c r="K70" s="88"/>
-      <c r="L70" s="88"/>
-      <c r="M70" s="89"/>
+      <c r="C70" s="85">
+        <v>3.232313</v>
+      </c>
+      <c r="D70" s="86">
+        <v>0.17116799999999999</v>
+      </c>
+      <c r="E70" s="87">
+        <v>12.448333999999999</v>
+      </c>
+      <c r="F70" s="87">
+        <v>86.211862999999994</v>
+      </c>
+      <c r="G70" s="86">
+        <v>1.0229980000000001</v>
+      </c>
+      <c r="H70" s="88">
+        <v>163.88102900000001</v>
+      </c>
+      <c r="I70" s="89">
+        <v>10506.297004</v>
+      </c>
+      <c r="J70" s="87">
+        <v>38385.89284</v>
+      </c>
+      <c r="K70" s="87">
+        <v>245938.632101</v>
+      </c>
+      <c r="L70" s="87">
+        <v>3444.8749680000001</v>
+      </c>
+      <c r="M70" s="88">
+        <v>483428.374366</v>
+      </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="78"/>
-      <c r="B71" s="85" t="s">
+      <c r="A71" s="77"/>
+      <c r="B71" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="C71" s="86"/>
-      <c r="D71" s="87"/>
-      <c r="E71" s="88"/>
-      <c r="F71" s="88"/>
-      <c r="G71" s="87"/>
-      <c r="H71" s="89"/>
-      <c r="I71" s="90"/>
-      <c r="J71" s="88"/>
-      <c r="K71" s="88"/>
-      <c r="L71" s="88"/>
-      <c r="M71" s="89"/>
+      <c r="C71" s="85">
+        <v>1.9633879999999999</v>
+      </c>
+      <c r="D71" s="86">
+        <v>0.14913399999999999</v>
+      </c>
+      <c r="E71" s="87">
+        <v>9.6187290000000001</v>
+      </c>
+      <c r="F71" s="87">
+        <v>49.976098999999998</v>
+      </c>
+      <c r="G71" s="86">
+        <v>1.4738979999999999</v>
+      </c>
+      <c r="H71" s="88">
+        <v>97.194764000000006</v>
+      </c>
+      <c r="I71" s="89">
+        <v>25874.053468999999</v>
+      </c>
+      <c r="J71" s="87">
+        <v>147021.83660000001</v>
+      </c>
+      <c r="K71" s="87">
+        <v>836075.55705499998</v>
+      </c>
+      <c r="L71" s="87">
+        <v>20016.355645</v>
+      </c>
+      <c r="M71" s="88">
+        <v>1563402.2363710001</v>
+      </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="78"/>
-      <c r="B72" s="85" t="s">
+      <c r="A72" s="77"/>
+      <c r="B72" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="C72" s="86"/>
-      <c r="D72" s="87"/>
-      <c r="E72" s="88"/>
-      <c r="F72" s="88"/>
-      <c r="G72" s="87"/>
-      <c r="H72" s="89"/>
-      <c r="I72" s="90"/>
-      <c r="J72" s="88"/>
-      <c r="K72" s="88"/>
-      <c r="L72" s="88"/>
-      <c r="M72" s="89"/>
+      <c r="C72" s="85">
+        <v>6.748151</v>
+      </c>
+      <c r="D72" s="86">
+        <v>0.25743700000000003</v>
+      </c>
+      <c r="E72" s="87">
+        <v>12.611475</v>
+      </c>
+      <c r="F72" s="87">
+        <v>49.344985000000001</v>
+      </c>
+      <c r="G72" s="86">
+        <v>1.0990059999999999</v>
+      </c>
+      <c r="H72" s="88">
+        <v>77.847302999999997</v>
+      </c>
+      <c r="I72" s="89">
+        <v>21019.769198000002</v>
+      </c>
+      <c r="J72" s="87">
+        <v>37753.905826000002</v>
+      </c>
+      <c r="K72" s="87">
+        <v>171241.311502</v>
+      </c>
+      <c r="L72" s="87">
+        <v>4680.5056940000004</v>
+      </c>
+      <c r="M72" s="88">
+        <v>263117.81241399999</v>
+      </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="78"/>
-      <c r="B73" s="85" t="s">
+      <c r="A73" s="77"/>
+      <c r="B73" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="C73" s="86"/>
-      <c r="D73" s="87"/>
-      <c r="E73" s="88"/>
-      <c r="F73" s="88"/>
-      <c r="G73" s="87"/>
-      <c r="H73" s="89"/>
-      <c r="I73" s="90"/>
-      <c r="J73" s="88"/>
-      <c r="K73" s="88"/>
-      <c r="L73" s="88"/>
-      <c r="M73" s="89"/>
+      <c r="C73" s="85">
+        <v>3.4410129999999999</v>
+      </c>
+      <c r="D73" s="86">
+        <v>0.29011199999999998</v>
+      </c>
+      <c r="E73" s="87">
+        <v>13.938453000000001</v>
+      </c>
+      <c r="F73" s="87">
+        <v>61.873193000000001</v>
+      </c>
+      <c r="G73" s="86">
+        <v>2.4567380000000001</v>
+      </c>
+      <c r="H73" s="88">
+        <v>157.52727999999999</v>
+      </c>
+      <c r="I73" s="89">
+        <v>30158.875660999998</v>
+      </c>
+      <c r="J73" s="87">
+        <v>117202.049337</v>
+      </c>
+      <c r="K73" s="87">
+        <v>475663.78431000002</v>
+      </c>
+      <c r="L73" s="87">
+        <v>84496.898453999995</v>
+      </c>
+      <c r="M73" s="88">
+        <v>1259657.1540379999</v>
+      </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="78"/>
-      <c r="B74" s="85" t="s">
+      <c r="A74" s="77"/>
+      <c r="B74" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="C74" s="86"/>
-      <c r="D74" s="87"/>
-      <c r="E74" s="88"/>
-      <c r="F74" s="88"/>
-      <c r="G74" s="87"/>
-      <c r="H74" s="89"/>
-      <c r="I74" s="90"/>
-      <c r="J74" s="88"/>
-      <c r="K74" s="88"/>
-      <c r="L74" s="88"/>
-      <c r="M74" s="89"/>
+      <c r="C74" s="85">
+        <v>6.8917619999999999</v>
+      </c>
+      <c r="D74" s="86">
+        <v>0.13960700000000001</v>
+      </c>
+      <c r="E74" s="87">
+        <v>16.685682</v>
+      </c>
+      <c r="F74" s="87">
+        <v>93.147746999999995</v>
+      </c>
+      <c r="G74" s="86">
+        <v>3.839394</v>
+      </c>
+      <c r="H74" s="88">
+        <v>169.57343700000001</v>
+      </c>
+      <c r="I74" s="89">
+        <v>32054.550593</v>
+      </c>
+      <c r="J74" s="87">
+        <v>77419.847013999999</v>
+      </c>
+      <c r="K74" s="87">
+        <v>434351.392276</v>
+      </c>
+      <c r="L74" s="87">
+        <v>17487.310528000002</v>
+      </c>
+      <c r="M74" s="88">
+        <v>791312.98689499998</v>
+      </c>
     </row>
     <row r="75" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="78"/>
-      <c r="B75" s="85" t="s">
+      <c r="A75" s="77"/>
+      <c r="B75" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="C75" s="97"/>
-      <c r="D75" s="98"/>
-      <c r="E75" s="99"/>
-      <c r="F75" s="99"/>
-      <c r="G75" s="98"/>
-      <c r="H75" s="100"/>
-      <c r="I75" s="101"/>
-      <c r="J75" s="99"/>
-      <c r="K75" s="99"/>
-      <c r="L75" s="99"/>
-      <c r="M75" s="100"/>
+      <c r="C75" s="96">
+        <v>3.4273169999999999</v>
+      </c>
+      <c r="D75" s="97">
+        <v>6.8791000000000005E-2</v>
+      </c>
+      <c r="E75" s="98">
+        <v>15.516767</v>
+      </c>
+      <c r="F75" s="98">
+        <v>114.408733</v>
+      </c>
+      <c r="G75" s="97">
+        <v>0.89192700000000003</v>
+      </c>
+      <c r="H75" s="99">
+        <v>196.06800999999999</v>
+      </c>
+      <c r="I75" s="100">
+        <v>4057.1853019999999</v>
+      </c>
+      <c r="J75" s="98">
+        <v>17971.522145999999</v>
+      </c>
+      <c r="K75" s="98">
+        <v>122202.577687</v>
+      </c>
+      <c r="L75" s="98">
+        <v>1576.6464559999999</v>
+      </c>
+      <c r="M75" s="99">
+        <v>201723.79861699999</v>
+      </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="78"/>
-      <c r="B76" s="102" t="s">
+      <c r="A76" s="77"/>
+      <c r="B76" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="C76" s="103"/>
-      <c r="D76" s="104"/>
-      <c r="E76" s="105"/>
-      <c r="F76" s="105"/>
-      <c r="G76" s="104"/>
-      <c r="H76" s="106"/>
-      <c r="I76" s="107"/>
-      <c r="J76" s="105"/>
-      <c r="K76" s="105"/>
-      <c r="L76" s="105"/>
-      <c r="M76" s="106"/>
+      <c r="C76" s="102">
+        <v>4.4924920000000004</v>
+      </c>
+      <c r="D76" s="103">
+        <v>0.51487499999999997</v>
+      </c>
+      <c r="E76" s="104">
+        <v>20.482403000000001</v>
+      </c>
+      <c r="F76" s="104">
+        <v>53.482208999999997</v>
+      </c>
+      <c r="G76" s="103">
+        <v>5.4876569999999996</v>
+      </c>
+      <c r="H76" s="105">
+        <v>179.937647</v>
+      </c>
+      <c r="I76" s="106">
+        <v>155046.15015999999</v>
+      </c>
+      <c r="J76" s="104">
+        <v>701709.86030599999</v>
+      </c>
+      <c r="K76" s="104">
+        <v>1875694.9354280001</v>
+      </c>
+      <c r="L76" s="104">
+        <v>177626.35967100001</v>
+      </c>
+      <c r="M76" s="105">
+        <v>6234531.1181380004</v>
+      </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="78"/>
-      <c r="B77" s="85" t="s">
+      <c r="A77" s="77"/>
+      <c r="B77" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="C77" s="86"/>
-      <c r="D77" s="87"/>
-      <c r="E77" s="88"/>
-      <c r="F77" s="88"/>
-      <c r="G77" s="87"/>
-      <c r="H77" s="89"/>
-      <c r="I77" s="90"/>
-      <c r="J77" s="88"/>
-      <c r="K77" s="88"/>
-      <c r="L77" s="88"/>
-      <c r="M77" s="89"/>
+      <c r="C77" s="85">
+        <v>3.1080839999999998</v>
+      </c>
+      <c r="D77" s="86">
+        <v>0.513656</v>
+      </c>
+      <c r="E77" s="87">
+        <v>13.997108000000001</v>
+      </c>
+      <c r="F77" s="87">
+        <v>101.65136699999999</v>
+      </c>
+      <c r="G77" s="86">
+        <v>10.109038999999999</v>
+      </c>
+      <c r="H77" s="88">
+        <v>192.22953000000001</v>
+      </c>
+      <c r="I77" s="89">
+        <v>97020.024057999995</v>
+      </c>
+      <c r="J77" s="87">
+        <v>504470.72663500003</v>
+      </c>
+      <c r="K77" s="87">
+        <v>2286646.1425669999</v>
+      </c>
+      <c r="L77" s="87">
+        <v>325568.24432900001</v>
+      </c>
+      <c r="M77" s="88">
+        <v>6148419.0586390002</v>
+      </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="78"/>
-      <c r="B78" s="85" t="s">
+      <c r="A78" s="77"/>
+      <c r="B78" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="C78" s="86"/>
-      <c r="D78" s="87"/>
-      <c r="E78" s="88"/>
-      <c r="F78" s="88"/>
-      <c r="G78" s="87"/>
-      <c r="H78" s="89"/>
-      <c r="I78" s="90"/>
-      <c r="J78" s="88"/>
-      <c r="K78" s="88"/>
-      <c r="L78" s="88"/>
-      <c r="M78" s="89"/>
+      <c r="C78" s="85">
+        <v>3.0159280000000002</v>
+      </c>
+      <c r="D78" s="86">
+        <v>4.5432E-2</v>
+      </c>
+      <c r="E78" s="87">
+        <v>18.722802999999999</v>
+      </c>
+      <c r="F78" s="87">
+        <v>53.933114000000003</v>
+      </c>
+      <c r="G78" s="86">
+        <v>1.0550930000000001</v>
+      </c>
+      <c r="H78" s="88">
+        <v>203.778424</v>
+      </c>
+      <c r="I78" s="89">
+        <v>482464.38322399999</v>
+      </c>
+      <c r="J78" s="87">
+        <v>3043956.605157</v>
+      </c>
+      <c r="K78" s="87">
+        <v>8830843.3191340007</v>
+      </c>
+      <c r="L78" s="87">
+        <v>158327.21352700001</v>
+      </c>
+      <c r="M78" s="88">
+        <v>33089652.521283999</v>
+      </c>
     </row>
     <row r="79" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="78"/>
-      <c r="B79" s="91" t="s">
+      <c r="A79" s="77"/>
+      <c r="B79" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="C79" s="92"/>
-      <c r="D79" s="93"/>
-      <c r="E79" s="94"/>
-      <c r="F79" s="94"/>
-      <c r="G79" s="93"/>
-      <c r="H79" s="95"/>
-      <c r="I79" s="96"/>
-      <c r="J79" s="94"/>
-      <c r="K79" s="94"/>
-      <c r="L79" s="94"/>
-      <c r="M79" s="95"/>
+      <c r="C79" s="91">
+        <v>3.4220109999999999</v>
+      </c>
+      <c r="D79" s="92">
+        <v>0.20888100000000001</v>
+      </c>
+      <c r="E79" s="93">
+        <v>18.280688999999999</v>
+      </c>
+      <c r="F79" s="93">
+        <v>60.283569999999997</v>
+      </c>
+      <c r="G79" s="92">
+        <v>2.2793770000000002</v>
+      </c>
+      <c r="H79" s="94">
+        <v>196.28340399999999</v>
+      </c>
+      <c r="I79" s="95">
+        <v>1881419.3621660001</v>
+      </c>
+      <c r="J79" s="93">
+        <v>9904369.7015080005</v>
+      </c>
+      <c r="K79" s="93">
+        <v>33524021.528404001</v>
+      </c>
+      <c r="L79" s="93">
+        <v>405347.11458300002</v>
+      </c>
+      <c r="M79" s="94">
+        <v>105934137.445703</v>
+      </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="78"/>
-      <c r="B80" s="102" t="s">
+      <c r="A80" s="77"/>
+      <c r="B80" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="C80" s="103"/>
-      <c r="D80" s="104"/>
-      <c r="E80" s="105"/>
-      <c r="F80" s="105"/>
-      <c r="G80" s="104"/>
-      <c r="H80" s="106"/>
-      <c r="I80" s="107"/>
-      <c r="J80" s="105"/>
-      <c r="K80" s="105"/>
-      <c r="L80" s="105"/>
-      <c r="M80" s="106"/>
+      <c r="C80" s="102">
+        <v>6.5654570000000003</v>
+      </c>
+      <c r="D80" s="103">
+        <v>5.2586000000000001E-2</v>
+      </c>
+      <c r="E80" s="104">
+        <v>15.189909999999999</v>
+      </c>
+      <c r="F80" s="104">
+        <v>118.77601</v>
+      </c>
+      <c r="G80" s="103">
+        <v>1.3962030000000001</v>
+      </c>
+      <c r="H80" s="105">
+        <v>173.59429900000001</v>
+      </c>
+      <c r="I80" s="106">
+        <v>29656.255073</v>
+      </c>
+      <c r="J80" s="104">
+        <v>65066.090192000003</v>
+      </c>
+      <c r="K80" s="104">
+        <v>528960.02665000001</v>
+      </c>
+      <c r="L80" s="104">
+        <v>6471.2170530000003</v>
+      </c>
+      <c r="M80" s="105">
+        <v>744846.43653800001</v>
+      </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="78"/>
-      <c r="B81" s="85" t="s">
+      <c r="A81" s="77"/>
+      <c r="B81" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="C81" s="86"/>
-      <c r="D81" s="87"/>
-      <c r="E81" s="88"/>
-      <c r="F81" s="88"/>
-      <c r="G81" s="87"/>
-      <c r="H81" s="89"/>
-      <c r="I81" s="90"/>
-      <c r="J81" s="88"/>
-      <c r="K81" s="88"/>
-      <c r="L81" s="88"/>
-      <c r="M81" s="89"/>
+      <c r="C81" s="85">
+        <v>5.0838549999999998</v>
+      </c>
+      <c r="D81" s="86">
+        <v>7.7037999999999995E-2</v>
+      </c>
+      <c r="E81" s="87">
+        <v>13.120148</v>
+      </c>
+      <c r="F81" s="87">
+        <v>110.073542</v>
+      </c>
+      <c r="G81" s="86">
+        <v>0.80404299999999995</v>
+      </c>
+      <c r="H81" s="88">
+        <v>172.921648</v>
+      </c>
+      <c r="I81" s="89">
+        <v>226286.908914</v>
+      </c>
+      <c r="J81" s="87">
+        <v>625821.71573399997</v>
+      </c>
+      <c r="K81" s="87">
+        <v>3949686.426095</v>
+      </c>
+      <c r="L81" s="87">
+        <v>29922.990392</v>
+      </c>
+      <c r="M81" s="88">
+        <v>7481825.0770100001</v>
+      </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="78"/>
-      <c r="B82" s="85" t="s">
+      <c r="A82" s="77"/>
+      <c r="B82" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="C82" s="86"/>
-      <c r="D82" s="87"/>
-      <c r="E82" s="88"/>
-      <c r="F82" s="88"/>
-      <c r="G82" s="87"/>
-      <c r="H82" s="89"/>
-      <c r="I82" s="90"/>
-      <c r="J82" s="88"/>
-      <c r="K82" s="88"/>
-      <c r="L82" s="88"/>
-      <c r="M82" s="89"/>
+      <c r="C82" s="85">
+        <v>3.5994220000000001</v>
+      </c>
+      <c r="D82" s="86">
+        <v>0.21729599999999999</v>
+      </c>
+      <c r="E82" s="87">
+        <v>10.209428000000001</v>
+      </c>
+      <c r="F82" s="87">
+        <v>50.103284000000002</v>
+      </c>
+      <c r="G82" s="86">
+        <v>2.0444300000000002</v>
+      </c>
+      <c r="H82" s="88">
+        <v>99.318128000000002</v>
+      </c>
+      <c r="I82" s="89">
+        <v>112111.216953</v>
+      </c>
+      <c r="J82" s="87">
+        <v>359062.32203899999</v>
+      </c>
+      <c r="K82" s="87">
+        <v>1833529.020054</v>
+      </c>
+      <c r="L82" s="87">
+        <v>129579.300178</v>
+      </c>
+      <c r="M82" s="88">
+        <v>3600347.5732180001</v>
+      </c>
     </row>
     <row r="83" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="78"/>
-      <c r="B83" s="91" t="s">
+      <c r="A83" s="77"/>
+      <c r="B83" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="C83" s="92"/>
-      <c r="D83" s="93"/>
-      <c r="E83" s="94"/>
-      <c r="F83" s="94"/>
-      <c r="G83" s="93"/>
-      <c r="H83" s="95"/>
-      <c r="I83" s="96"/>
-      <c r="J83" s="94"/>
-      <c r="K83" s="94"/>
-      <c r="L83" s="94"/>
-      <c r="M83" s="95"/>
+      <c r="C83" s="91">
+        <v>6.5079079999999996</v>
+      </c>
+      <c r="D83" s="92">
+        <v>0.23302</v>
+      </c>
+      <c r="E83" s="93">
+        <v>20.509988</v>
+      </c>
+      <c r="F83" s="93">
+        <v>82.020399999999995</v>
+      </c>
+      <c r="G83" s="92">
+        <v>3.0952679999999999</v>
+      </c>
+      <c r="H83" s="94">
+        <v>186.65087399999999</v>
+      </c>
+      <c r="I83" s="95">
+        <v>4604258.8558710003</v>
+      </c>
+      <c r="J83" s="93">
+        <v>15859037.512118001</v>
+      </c>
+      <c r="K83" s="93">
+        <v>62242475.415592998</v>
+      </c>
+      <c r="L83" s="93">
+        <v>1246804.0412880001</v>
+      </c>
+      <c r="M83" s="94">
+        <v>150525365.698495</v>
+      </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="78"/>
-      <c r="B84" s="102" t="s">
+      <c r="A84" s="77"/>
+      <c r="B84" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="C84" s="103"/>
-      <c r="D84" s="104"/>
-      <c r="E84" s="105"/>
-      <c r="F84" s="105"/>
-      <c r="G84" s="104"/>
-      <c r="H84" s="106"/>
-      <c r="I84" s="107"/>
-      <c r="J84" s="105"/>
-      <c r="K84" s="105"/>
-      <c r="L84" s="105"/>
-      <c r="M84" s="106"/>
+      <c r="C84" s="102">
+        <v>4.0455569999999996</v>
+      </c>
+      <c r="D84" s="103">
+        <v>0.30618800000000002</v>
+      </c>
+      <c r="E84" s="104">
+        <v>10.056414</v>
+      </c>
+      <c r="F84" s="104">
+        <v>48.087702999999998</v>
+      </c>
+      <c r="G84" s="103">
+        <v>1.161538</v>
+      </c>
+      <c r="H84" s="105">
+        <v>84.418138999999996</v>
+      </c>
+      <c r="I84" s="106">
+        <v>14983.80392</v>
+      </c>
+      <c r="J84" s="104">
+        <v>36811.946097</v>
+      </c>
+      <c r="K84" s="104">
+        <v>187974.47696999999</v>
+      </c>
+      <c r="L84" s="104">
+        <v>5121.2220170000001</v>
+      </c>
+      <c r="M84" s="105">
+        <v>338152.14415499999</v>
+      </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="78"/>
-      <c r="B85" s="108" t="s">
+      <c r="A85" s="77"/>
+      <c r="B85" s="107" t="s">
         <v>151</v>
       </c>
-      <c r="C85" s="86"/>
-      <c r="D85" s="87"/>
-      <c r="E85" s="88"/>
-      <c r="F85" s="88"/>
-      <c r="G85" s="87"/>
-      <c r="H85" s="89"/>
-      <c r="I85" s="90"/>
-      <c r="J85" s="88"/>
-      <c r="K85" s="88"/>
-      <c r="L85" s="88"/>
-      <c r="M85" s="89"/>
+      <c r="C85" s="85">
+        <v>6.1872439999999997</v>
+      </c>
+      <c r="D85" s="86">
+        <v>1.2161999999999999E-2</v>
+      </c>
+      <c r="E85" s="87">
+        <v>19.065028999999999</v>
+      </c>
+      <c r="F85" s="87">
+        <v>310.379638</v>
+      </c>
+      <c r="G85" s="86">
+        <v>4.9975639999999997</v>
+      </c>
+      <c r="H85" s="88">
+        <v>251.88091600000001</v>
+      </c>
+      <c r="I85" s="89">
+        <v>1605.4496079999999</v>
+      </c>
+      <c r="J85" s="87">
+        <v>2397.8355529999999</v>
+      </c>
+      <c r="K85" s="87">
+        <v>67083.658314</v>
+      </c>
+      <c r="L85" s="87">
+        <v>199.972703</v>
+      </c>
+      <c r="M85" s="88">
+        <v>34657.823701000001</v>
+      </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="78"/>
-      <c r="B86" s="85" t="s">
+      <c r="A86" s="77"/>
+      <c r="B86" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="86"/>
-      <c r="D86" s="87"/>
-      <c r="E86" s="88"/>
-      <c r="F86" s="88"/>
-      <c r="G86" s="87"/>
-      <c r="H86" s="89"/>
-      <c r="I86" s="90"/>
-      <c r="J86" s="88"/>
-      <c r="K86" s="88"/>
-      <c r="L86" s="88"/>
-      <c r="M86" s="89"/>
+      <c r="C86" s="85">
+        <v>3.3790439999999999</v>
+      </c>
+      <c r="D86" s="86">
+        <v>0.152868</v>
+      </c>
+      <c r="E86" s="87">
+        <v>9.3860250000000001</v>
+      </c>
+      <c r="F86" s="87">
+        <v>54.064053000000001</v>
+      </c>
+      <c r="G86" s="86">
+        <v>1.857073</v>
+      </c>
+      <c r="H86" s="88">
+        <v>99.223989000000003</v>
+      </c>
+      <c r="I86" s="89">
+        <v>79718.277220999997</v>
+      </c>
+      <c r="J86" s="87">
+        <v>257879.84036900001</v>
+      </c>
+      <c r="K86" s="87">
+        <v>1488790.8524509999</v>
+      </c>
+      <c r="L86" s="87">
+        <v>108818.4912</v>
+      </c>
+      <c r="M86" s="88">
+        <v>2723305.411177</v>
+      </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="78"/>
-      <c r="B87" s="85" t="s">
+      <c r="A87" s="77"/>
+      <c r="B87" s="84" t="s">
         <v>153</v>
       </c>
-      <c r="C87" s="86"/>
-      <c r="D87" s="87"/>
-      <c r="E87" s="88"/>
-      <c r="F87" s="88"/>
-      <c r="G87" s="87"/>
-      <c r="H87" s="89"/>
-      <c r="I87" s="90"/>
-      <c r="J87" s="88"/>
-      <c r="K87" s="88"/>
-      <c r="L87" s="88"/>
-      <c r="M87" s="89"/>
+      <c r="C87" s="85">
+        <v>4.8493430000000002</v>
+      </c>
+      <c r="D87" s="86">
+        <v>0.30481799999999998</v>
+      </c>
+      <c r="E87" s="87">
+        <v>16.937650999999999</v>
+      </c>
+      <c r="F87" s="87">
+        <v>52.972397999999998</v>
+      </c>
+      <c r="G87" s="86">
+        <v>4.6908580000000004</v>
+      </c>
+      <c r="H87" s="88">
+        <v>135.035258</v>
+      </c>
+      <c r="I87" s="89">
+        <v>274107.26648699999</v>
+      </c>
+      <c r="J87" s="87">
+        <v>955706.76771399996</v>
+      </c>
+      <c r="K87" s="87">
+        <v>2981481.2032090002</v>
+      </c>
+      <c r="L87" s="87">
+        <v>274933.30642600002</v>
+      </c>
+      <c r="M87" s="88">
+        <v>7621437.3113409998</v>
+      </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="78"/>
-      <c r="B88" s="85" t="s">
+      <c r="A88" s="77"/>
+      <c r="B88" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="C88" s="86"/>
-      <c r="D88" s="87"/>
-      <c r="E88" s="88"/>
-      <c r="F88" s="88"/>
-      <c r="G88" s="87"/>
-      <c r="H88" s="89"/>
-      <c r="I88" s="90"/>
-      <c r="J88" s="88"/>
-      <c r="K88" s="88"/>
-      <c r="L88" s="88"/>
-      <c r="M88" s="89"/>
+      <c r="C88" s="85">
+        <v>5.1822480000000004</v>
+      </c>
+      <c r="D88" s="86">
+        <v>0.28870800000000002</v>
+      </c>
+      <c r="E88" s="87">
+        <v>14.511837999999999</v>
+      </c>
+      <c r="F88" s="87">
+        <v>83.175703999999996</v>
+      </c>
+      <c r="G88" s="86">
+        <v>2.96089</v>
+      </c>
+      <c r="H88" s="88">
+        <v>160.31792300000001</v>
+      </c>
+      <c r="I88" s="89">
+        <v>36603.138742000003</v>
+      </c>
+      <c r="J88" s="87">
+        <v>106711.659726</v>
+      </c>
+      <c r="K88" s="87">
+        <v>605534.87567400001</v>
+      </c>
+      <c r="L88" s="87">
+        <v>21987.686593999999</v>
+      </c>
+      <c r="M88" s="88">
+        <v>1193550.007038</v>
+      </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="78"/>
-      <c r="B89" s="85" t="s">
+      <c r="A89" s="77"/>
+      <c r="B89" s="84" t="s">
         <v>155</v>
       </c>
-      <c r="C89" s="86"/>
-      <c r="D89" s="87"/>
-      <c r="E89" s="88"/>
-      <c r="F89" s="88"/>
-      <c r="G89" s="87"/>
-      <c r="H89" s="89"/>
-      <c r="I89" s="90"/>
-      <c r="J89" s="88"/>
-      <c r="K89" s="88"/>
-      <c r="L89" s="88"/>
-      <c r="M89" s="89"/>
+      <c r="C89" s="85">
+        <v>10.910596999999999</v>
+      </c>
+      <c r="D89" s="86">
+        <v>0.29765000000000003</v>
+      </c>
+      <c r="E89" s="87">
+        <v>24.203724000000001</v>
+      </c>
+      <c r="F89" s="87">
+        <v>118.87467700000001</v>
+      </c>
+      <c r="G89" s="86">
+        <v>3.2938860000000001</v>
+      </c>
+      <c r="H89" s="88">
+        <v>191.095744</v>
+      </c>
+      <c r="I89" s="89">
+        <v>2508811.994225</v>
+      </c>
+      <c r="J89" s="87">
+        <v>5353641.5732500004</v>
+      </c>
+      <c r="K89" s="87">
+        <v>27032499.817807999</v>
+      </c>
+      <c r="L89" s="87">
+        <v>703397.86416999996</v>
+      </c>
+      <c r="M89" s="88">
+        <v>41374443.414439999</v>
+      </c>
     </row>
     <row r="90" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="78"/>
-      <c r="B90" s="91" t="s">
+      <c r="A90" s="77"/>
+      <c r="B90" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="C90" s="92"/>
-      <c r="D90" s="93"/>
-      <c r="E90" s="94"/>
-      <c r="F90" s="94"/>
-      <c r="G90" s="93"/>
-      <c r="H90" s="95"/>
-      <c r="I90" s="96"/>
-      <c r="J90" s="94"/>
-      <c r="K90" s="94"/>
-      <c r="L90" s="94"/>
-      <c r="M90" s="95"/>
+      <c r="C90" s="91">
+        <v>3.7198199999999999</v>
+      </c>
+      <c r="D90" s="92">
+        <v>5.8029999999999998E-2</v>
+      </c>
+      <c r="E90" s="93">
+        <v>17.785504</v>
+      </c>
+      <c r="F90" s="93">
+        <v>64.371702999999997</v>
+      </c>
+      <c r="G90" s="92">
+        <v>1.359861</v>
+      </c>
+      <c r="H90" s="94">
+        <v>191.55293</v>
+      </c>
+      <c r="I90" s="95">
+        <v>2046099.059322</v>
+      </c>
+      <c r="J90" s="93">
+        <v>10173565.047421999</v>
+      </c>
+      <c r="K90" s="93">
+        <v>36113321.982799999</v>
+      </c>
+      <c r="L90" s="93">
+        <v>298223.354024</v>
+      </c>
+      <c r="M90" s="94">
+        <v>108981043.35743199</v>
+      </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="78"/>
-      <c r="B91" s="102" t="s">
+      <c r="A91" s="77"/>
+      <c r="B91" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="C91" s="103"/>
-      <c r="D91" s="104"/>
-      <c r="E91" s="105"/>
-      <c r="F91" s="105"/>
-      <c r="G91" s="104"/>
-      <c r="H91" s="106"/>
-      <c r="I91" s="107"/>
-      <c r="J91" s="105"/>
-      <c r="K91" s="105"/>
-      <c r="L91" s="105"/>
-      <c r="M91" s="106"/>
+      <c r="C91" s="102">
+        <v>5.0238240000000003</v>
+      </c>
+      <c r="D91" s="103">
+        <v>0.19936400000000001</v>
+      </c>
+      <c r="E91" s="104">
+        <v>13.846709000000001</v>
+      </c>
+      <c r="F91" s="104">
+        <v>64.202160000000006</v>
+      </c>
+      <c r="G91" s="103">
+        <v>1.177988</v>
+      </c>
+      <c r="H91" s="105">
+        <v>114.219353</v>
+      </c>
+      <c r="I91" s="106">
+        <v>41209.265919999998</v>
+      </c>
+      <c r="J91" s="104">
+        <v>109007.529735</v>
+      </c>
+      <c r="K91" s="104">
+        <v>485474.75742099999</v>
+      </c>
+      <c r="L91" s="104">
+        <v>11061.580383</v>
+      </c>
+      <c r="M91" s="105">
+        <v>878068.61616600002</v>
+      </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="78"/>
-      <c r="B92" s="85" t="s">
+      <c r="A92" s="77"/>
+      <c r="B92" s="84" t="s">
         <v>158</v>
       </c>
-      <c r="C92" s="86"/>
-      <c r="D92" s="87"/>
-      <c r="E92" s="88"/>
-      <c r="F92" s="88"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="89"/>
-      <c r="I92" s="90"/>
-      <c r="J92" s="88"/>
-      <c r="K92" s="88"/>
-      <c r="L92" s="88"/>
-      <c r="M92" s="89"/>
+      <c r="C92" s="85">
+        <v>5.9240539999999999</v>
+      </c>
+      <c r="D92" s="86">
+        <v>0.39183200000000001</v>
+      </c>
+      <c r="E92" s="87">
+        <v>18.202135999999999</v>
+      </c>
+      <c r="F92" s="87">
+        <v>73.130781999999996</v>
+      </c>
+      <c r="G92" s="86">
+        <v>4.1937949999999997</v>
+      </c>
+      <c r="H92" s="88">
+        <v>139.94013799999999</v>
+      </c>
+      <c r="I92" s="89">
+        <v>36364.253690999998</v>
+      </c>
+      <c r="J92" s="87">
+        <v>108696.765524</v>
+      </c>
+      <c r="K92" s="87">
+        <v>348924.09039099998</v>
+      </c>
+      <c r="L92" s="87">
+        <v>27658.952583999999</v>
+      </c>
+      <c r="M92" s="88">
+        <v>786623.76575400005</v>
+      </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="78"/>
-      <c r="B93" s="85" t="s">
+      <c r="A93" s="77"/>
+      <c r="B93" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="C93" s="86"/>
-      <c r="D93" s="87"/>
-      <c r="E93" s="88"/>
-      <c r="F93" s="88"/>
-      <c r="G93" s="87"/>
-      <c r="H93" s="89"/>
-      <c r="I93" s="90"/>
-      <c r="J93" s="88"/>
-      <c r="K93" s="88"/>
-      <c r="L93" s="88"/>
-      <c r="M93" s="89"/>
+      <c r="C93" s="85">
+        <v>3.71821</v>
+      </c>
+      <c r="D93" s="86">
+        <v>6.9782999999999998E-2</v>
+      </c>
+      <c r="E93" s="87">
+        <v>11.838645</v>
+      </c>
+      <c r="F93" s="87">
+        <v>68.075890000000001</v>
+      </c>
+      <c r="G93" s="86">
+        <v>2.3724560000000001</v>
+      </c>
+      <c r="H93" s="88">
+        <v>132.96689799999999</v>
+      </c>
+      <c r="I93" s="89">
+        <v>1050.5341060000001</v>
+      </c>
+      <c r="J93" s="87">
+        <v>3323.9286940000002</v>
+      </c>
+      <c r="K93" s="87">
+        <v>19080.236191</v>
+      </c>
+      <c r="L93" s="87">
+        <v>681.36423100000002</v>
+      </c>
+      <c r="M93" s="88">
+        <v>37385.008319</v>
+      </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="78"/>
-      <c r="B94" s="85" t="s">
+      <c r="A94" s="77"/>
+      <c r="B94" s="84" t="s">
         <v>160</v>
       </c>
-      <c r="C94" s="86"/>
-      <c r="D94" s="87"/>
-      <c r="E94" s="88"/>
-      <c r="F94" s="88"/>
-      <c r="G94" s="87"/>
-      <c r="H94" s="89"/>
-      <c r="I94" s="90"/>
-      <c r="J94" s="88"/>
-      <c r="K94" s="88"/>
-      <c r="L94" s="88"/>
-      <c r="M94" s="89"/>
+      <c r="C94" s="85">
+        <v>4.0399240000000001</v>
+      </c>
+      <c r="D94" s="86">
+        <v>0.26586399999999999</v>
+      </c>
+      <c r="E94" s="87">
+        <v>20.445606000000002</v>
+      </c>
+      <c r="F94" s="87">
+        <v>56.354357</v>
+      </c>
+      <c r="G94" s="86">
+        <v>3.288316</v>
+      </c>
+      <c r="H94" s="88">
+        <v>185.12541400000001</v>
+      </c>
+      <c r="I94" s="89">
+        <v>20910.813048</v>
+      </c>
+      <c r="J94" s="87">
+        <v>102911.44736799999</v>
+      </c>
+      <c r="K94" s="87">
+        <v>279495.42332200002</v>
+      </c>
+      <c r="L94" s="87">
+        <v>6581.6071359999996</v>
+      </c>
+      <c r="M94" s="88">
+        <v>937855.41355000006</v>
+      </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="78"/>
-      <c r="B95" s="85" t="s">
+      <c r="A95" s="77"/>
+      <c r="B95" s="84" t="s">
         <v>161</v>
       </c>
-      <c r="C95" s="86"/>
-      <c r="D95" s="87"/>
-      <c r="E95" s="88"/>
-      <c r="F95" s="88"/>
-      <c r="G95" s="87"/>
-      <c r="H95" s="89"/>
-      <c r="I95" s="90"/>
-      <c r="J95" s="88"/>
-      <c r="K95" s="88"/>
-      <c r="L95" s="88"/>
-      <c r="M95" s="89"/>
+      <c r="C95" s="85">
+        <v>6.4862710000000003</v>
+      </c>
+      <c r="D95" s="86">
+        <v>0.12306599999999999</v>
+      </c>
+      <c r="E95" s="87">
+        <v>14.44131</v>
+      </c>
+      <c r="F95" s="87">
+        <v>56.944794999999999</v>
+      </c>
+      <c r="G95" s="86">
+        <v>1.0732980000000001</v>
+      </c>
+      <c r="H95" s="88">
+        <v>94.059517999999997</v>
+      </c>
+      <c r="I95" s="89">
+        <v>23839.099625999999</v>
+      </c>
+      <c r="J95" s="87">
+        <v>50812.915990000001</v>
+      </c>
+      <c r="K95" s="87">
+        <v>222357.86910099999</v>
+      </c>
+      <c r="L95" s="87">
+        <v>67642.047533000004</v>
+      </c>
+      <c r="M95" s="88">
+        <v>352761.20075900003</v>
+      </c>
     </row>
     <row r="96" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="78"/>
-      <c r="B96" s="91" t="s">
+      <c r="A96" s="77"/>
+      <c r="B96" s="90" t="s">
         <v>162</v>
       </c>
-      <c r="C96" s="92"/>
-      <c r="D96" s="93"/>
-      <c r="E96" s="94"/>
-      <c r="F96" s="94"/>
-      <c r="G96" s="93"/>
-      <c r="H96" s="95"/>
-      <c r="I96" s="96"/>
-      <c r="J96" s="94"/>
-      <c r="K96" s="94"/>
-      <c r="L96" s="94"/>
-      <c r="M96" s="95"/>
+      <c r="C96" s="91">
+        <v>4.1940619999999997</v>
+      </c>
+      <c r="D96" s="92">
+        <v>0.239705</v>
+      </c>
+      <c r="E96" s="93">
+        <v>11.053519</v>
+      </c>
+      <c r="F96" s="93">
+        <v>58.308864</v>
+      </c>
+      <c r="G96" s="92">
+        <v>3.3184260000000001</v>
+      </c>
+      <c r="H96" s="94">
+        <v>93.848118999999997</v>
+      </c>
+      <c r="I96" s="95">
+        <v>29498.189051000001</v>
+      </c>
+      <c r="J96" s="93">
+        <v>86324.767338999998</v>
+      </c>
+      <c r="K96" s="93">
+        <v>365367.38552100002</v>
+      </c>
+      <c r="L96" s="93">
+        <v>24073.554835999999</v>
+      </c>
+      <c r="M96" s="94">
+        <v>738460.18719800003</v>
+      </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="78"/>
-      <c r="B97" s="102" t="s">
+      <c r="A97" s="77"/>
+      <c r="B97" s="101" t="s">
         <v>163</v>
       </c>
-      <c r="C97" s="103"/>
-      <c r="D97" s="104"/>
-      <c r="E97" s="105"/>
-      <c r="F97" s="105"/>
-      <c r="G97" s="104"/>
-      <c r="H97" s="106"/>
-      <c r="I97" s="107"/>
-      <c r="J97" s="105"/>
-      <c r="K97" s="105"/>
-      <c r="L97" s="105"/>
-      <c r="M97" s="106"/>
+      <c r="C97" s="102">
+        <v>3.6110829999999998</v>
+      </c>
+      <c r="D97" s="103">
+        <v>0.148752</v>
+      </c>
+      <c r="E97" s="104">
+        <v>11.317484</v>
+      </c>
+      <c r="F97" s="104">
+        <v>59.921802</v>
+      </c>
+      <c r="G97" s="103">
+        <v>1.1779660000000001</v>
+      </c>
+      <c r="H97" s="105">
+        <v>107.480621</v>
+      </c>
+      <c r="I97" s="106">
+        <v>67507.174885</v>
+      </c>
+      <c r="J97" s="104">
+        <v>238592.73374299999</v>
+      </c>
+      <c r="K97" s="104">
+        <v>1327200.2633760001</v>
+      </c>
+      <c r="L97" s="104">
+        <v>89655.487938000006</v>
+      </c>
+      <c r="M97" s="105">
+        <v>2357696.3224260001</v>
+      </c>
     </row>
     <row r="98" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="78"/>
-      <c r="B98" s="91" t="s">
+      <c r="A98" s="77"/>
+      <c r="B98" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="C98" s="92"/>
-      <c r="D98" s="93"/>
-      <c r="E98" s="94"/>
-      <c r="F98" s="94"/>
-      <c r="G98" s="93"/>
-      <c r="H98" s="95"/>
-      <c r="I98" s="96"/>
-      <c r="J98" s="94"/>
-      <c r="K98" s="94"/>
-      <c r="L98" s="94"/>
-      <c r="M98" s="95"/>
+      <c r="C98" s="91">
+        <v>4.0638040000000002</v>
+      </c>
+      <c r="D98" s="92">
+        <v>0.282495</v>
+      </c>
+      <c r="E98" s="93">
+        <v>12.953607</v>
+      </c>
+      <c r="F98" s="93">
+        <v>118.276427</v>
+      </c>
+      <c r="G98" s="92">
+        <v>2.5375359999999998</v>
+      </c>
+      <c r="H98" s="94">
+        <v>169.65804700000001</v>
+      </c>
+      <c r="I98" s="95">
+        <v>65838.833857999998</v>
+      </c>
+      <c r="J98" s="93">
+        <v>208128.95623000001</v>
+      </c>
+      <c r="K98" s="93">
+        <v>1022308.479237</v>
+      </c>
+      <c r="L98" s="93">
+        <v>48914.166424000003</v>
+      </c>
+      <c r="M98" s="94">
+        <v>2059293.826448</v>
+      </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="109"/>
-      <c r="B99" s="110"/>
-      <c r="C99" s="98"/>
-      <c r="D99" s="98"/>
-      <c r="E99" s="99"/>
-      <c r="F99" s="99"/>
-      <c r="G99" s="98"/>
-      <c r="H99" s="98"/>
-      <c r="I99" s="99"/>
-      <c r="J99" s="99"/>
-      <c r="K99" s="99"/>
-      <c r="L99" s="99"/>
-      <c r="M99" s="98"/>
+      <c r="A99" s="108"/>
+      <c r="B99" s="109"/>
+      <c r="C99" s="97"/>
+      <c r="D99" s="97"/>
+      <c r="E99" s="98"/>
+      <c r="F99" s="98"/>
+      <c r="G99" s="97"/>
+      <c r="H99" s="97"/>
+      <c r="I99" s="98"/>
+      <c r="J99" s="98"/>
+      <c r="K99" s="98"/>
+      <c r="L99" s="98"/>
+      <c r="M99" s="97"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C100" s="111"/>
-      <c r="D100" s="111"/>
-      <c r="E100" s="112"/>
-      <c r="F100" s="112"/>
-      <c r="G100" s="111"/>
-      <c r="H100" s="111"/>
-      <c r="I100" s="112"/>
-      <c r="J100" s="112"/>
-      <c r="K100" s="112"/>
-      <c r="L100" s="112"/>
-      <c r="M100" s="111"/>
+      <c r="C100" s="110"/>
+      <c r="D100" s="110"/>
+      <c r="E100" s="111"/>
+      <c r="F100" s="111"/>
+      <c r="G100" s="110"/>
+      <c r="H100" s="110"/>
+      <c r="I100" s="111"/>
+      <c r="J100" s="111"/>
+      <c r="K100" s="111"/>
+      <c r="L100" s="111"/>
+      <c r="M100" s="110"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C101" s="111"/>
-      <c r="D101" s="111"/>
-      <c r="E101" s="112"/>
-      <c r="F101" s="112"/>
-      <c r="G101" s="111"/>
-      <c r="H101" s="111"/>
-      <c r="I101" s="112"/>
-      <c r="J101" s="112"/>
-      <c r="K101" s="112"/>
-      <c r="L101" s="112"/>
-      <c r="M101" s="111"/>
+      <c r="C101" s="110"/>
+      <c r="D101" s="110"/>
+      <c r="E101" s="111"/>
+      <c r="F101" s="111"/>
+      <c r="G101" s="110"/>
+      <c r="H101" s="110"/>
+      <c r="I101" s="111"/>
+      <c r="J101" s="111"/>
+      <c r="K101" s="111"/>
+      <c r="L101" s="111"/>
+      <c r="M101" s="110"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C102" s="111"/>
-      <c r="D102" s="111"/>
-      <c r="E102" s="112"/>
-      <c r="F102" s="112"/>
-      <c r="G102" s="111"/>
-      <c r="H102" s="111"/>
-      <c r="I102" s="112"/>
-      <c r="J102" s="112"/>
-      <c r="K102" s="112"/>
-      <c r="L102" s="112"/>
-      <c r="M102" s="111"/>
+      <c r="C102" s="110"/>
+      <c r="D102" s="110"/>
+      <c r="E102" s="111"/>
+      <c r="F102" s="111"/>
+      <c r="G102" s="110"/>
+      <c r="H102" s="110"/>
+      <c r="I102" s="111"/>
+      <c r="J102" s="111"/>
+      <c r="K102" s="111"/>
+      <c r="L102" s="111"/>
+      <c r="M102" s="110"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C103" s="111"/>
-      <c r="D103" s="111"/>
-      <c r="E103" s="112"/>
-      <c r="F103" s="112"/>
-      <c r="G103" s="111"/>
-      <c r="H103" s="111"/>
-      <c r="I103" s="112"/>
-      <c r="J103" s="112"/>
-      <c r="K103" s="112"/>
-      <c r="L103" s="112"/>
-      <c r="M103" s="111"/>
+      <c r="C103" s="110"/>
+      <c r="D103" s="110"/>
+      <c r="E103" s="111"/>
+      <c r="F103" s="111"/>
+      <c r="G103" s="110"/>
+      <c r="H103" s="110"/>
+      <c r="I103" s="111"/>
+      <c r="J103" s="111"/>
+      <c r="K103" s="111"/>
+      <c r="L103" s="111"/>
+      <c r="M103" s="110"/>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C104" s="111"/>
-      <c r="D104" s="111"/>
-      <c r="E104" s="112"/>
-      <c r="F104" s="112"/>
-      <c r="G104" s="111"/>
-      <c r="H104" s="111"/>
-      <c r="I104" s="112"/>
-      <c r="J104" s="112"/>
-      <c r="K104" s="112"/>
-      <c r="L104" s="112"/>
-      <c r="M104" s="111"/>
+      <c r="C104" s="110"/>
+      <c r="D104" s="110"/>
+      <c r="E104" s="111"/>
+      <c r="F104" s="111"/>
+      <c r="G104" s="110"/>
+      <c r="H104" s="110"/>
+      <c r="I104" s="111"/>
+      <c r="J104" s="111"/>
+      <c r="K104" s="111"/>
+      <c r="L104" s="111"/>
+      <c r="M104" s="110"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C105" s="111"/>
-      <c r="D105" s="111"/>
-      <c r="E105" s="112"/>
-      <c r="F105" s="112"/>
-      <c r="G105" s="111"/>
-      <c r="H105" s="111"/>
-      <c r="I105" s="112"/>
-      <c r="J105" s="112"/>
-      <c r="K105" s="112"/>
-      <c r="L105" s="112"/>
-      <c r="M105" s="111"/>
+      <c r="C105" s="110"/>
+      <c r="D105" s="110"/>
+      <c r="E105" s="111"/>
+      <c r="F105" s="111"/>
+      <c r="G105" s="110"/>
+      <c r="H105" s="110"/>
+      <c r="I105" s="111"/>
+      <c r="J105" s="111"/>
+      <c r="K105" s="111"/>
+      <c r="L105" s="111"/>
+      <c r="M105" s="110"/>
     </row>
     <row r="106" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="113"/>
-      <c r="C106" s="111"/>
-      <c r="D106" s="111"/>
-      <c r="E106" s="112"/>
-      <c r="F106" s="112"/>
-      <c r="G106" s="111"/>
-      <c r="H106" s="111"/>
-      <c r="I106" s="112"/>
-      <c r="J106" s="112"/>
-      <c r="K106" s="112"/>
-      <c r="L106" s="112"/>
-      <c r="M106" s="111"/>
+      <c r="B106" s="112"/>
+      <c r="C106" s="110"/>
+      <c r="D106" s="110"/>
+      <c r="E106" s="111"/>
+      <c r="F106" s="111"/>
+      <c r="G106" s="110"/>
+      <c r="H106" s="110"/>
+      <c r="I106" s="111"/>
+      <c r="J106" s="111"/>
+      <c r="K106" s="111"/>
+      <c r="L106" s="111"/>
+      <c r="M106" s="110"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B107" s="114" t="s">
+      <c r="B107" s="113" t="s">
         <v>171</v>
       </c>
-      <c r="C107" s="111"/>
-      <c r="D107" s="111"/>
-      <c r="E107" s="112"/>
-      <c r="F107" s="112"/>
-      <c r="G107" s="111"/>
-      <c r="H107" s="111"/>
-      <c r="I107" s="112"/>
-      <c r="J107" s="112"/>
-      <c r="K107" s="112"/>
-      <c r="L107" s="112"/>
-      <c r="M107" s="111"/>
+      <c r="C107" s="110"/>
+      <c r="D107" s="110"/>
+      <c r="E107" s="111"/>
+      <c r="F107" s="111"/>
+      <c r="G107" s="110"/>
+      <c r="H107" s="110"/>
+      <c r="I107" s="111"/>
+      <c r="J107" s="111"/>
+      <c r="K107" s="111"/>
+      <c r="L107" s="111"/>
+      <c r="M107" s="110"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
-      <c r="C108" s="111"/>
-      <c r="D108" s="111"/>
-      <c r="E108" s="112"/>
-      <c r="F108" s="112"/>
-      <c r="G108" s="111"/>
-      <c r="H108" s="111"/>
-      <c r="I108" s="112"/>
-      <c r="J108" s="112"/>
-      <c r="K108" s="112"/>
-      <c r="L108" s="112"/>
-      <c r="M108" s="111"/>
+      <c r="C108" s="110"/>
+      <c r="D108" s="110"/>
+      <c r="E108" s="111"/>
+      <c r="F108" s="111"/>
+      <c r="G108" s="110"/>
+      <c r="H108" s="110"/>
+      <c r="I108" s="111"/>
+      <c r="J108" s="111"/>
+      <c r="K108" s="111"/>
+      <c r="L108" s="111"/>
+      <c r="M108" s="110"/>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="118" t="s">
         <v>173</v>
       </c>
-      <c r="C109" s="111"/>
-      <c r="D109" s="111"/>
-      <c r="E109" s="112"/>
-      <c r="F109" s="112"/>
-      <c r="G109" s="111"/>
-      <c r="H109" s="111"/>
-      <c r="I109" s="112"/>
-      <c r="J109" s="112"/>
-      <c r="K109" s="112"/>
-      <c r="L109" s="112"/>
-      <c r="M109" s="111"/>
+      <c r="C109" s="110"/>
+      <c r="D109" s="110"/>
+      <c r="E109" s="111"/>
+      <c r="F109" s="111"/>
+      <c r="G109" s="110"/>
+      <c r="H109" s="110"/>
+      <c r="I109" s="111"/>
+      <c r="J109" s="111"/>
+      <c r="K109" s="111"/>
+      <c r="L109" s="111"/>
+      <c r="M109" s="110"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="118" t="s">
         <v>174</v>
       </c>
-      <c r="C110" s="111"/>
-      <c r="D110" s="111"/>
-      <c r="E110" s="112"/>
-      <c r="F110" s="112"/>
-      <c r="G110" s="111"/>
-      <c r="H110" s="111"/>
-      <c r="I110" s="112"/>
-      <c r="J110" s="112"/>
-      <c r="K110" s="112"/>
-      <c r="L110" s="112"/>
-      <c r="M110" s="111"/>
+      <c r="C110" s="110"/>
+      <c r="D110" s="110"/>
+      <c r="E110" s="111"/>
+      <c r="F110" s="111"/>
+      <c r="G110" s="110"/>
+      <c r="H110" s="110"/>
+      <c r="I110" s="111"/>
+      <c r="J110" s="111"/>
+      <c r="K110" s="111"/>
+      <c r="L110" s="111"/>
+      <c r="M110" s="110"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B111" s="119" t="s">
+      <c r="B111" s="118" t="s">
         <v>175</v>
       </c>
-      <c r="C111" s="111"/>
-      <c r="D111" s="111"/>
-      <c r="E111" s="112"/>
-      <c r="F111" s="112"/>
-      <c r="G111" s="111"/>
-      <c r="H111" s="111"/>
-      <c r="I111" s="112"/>
-      <c r="J111" s="112"/>
-      <c r="K111" s="112"/>
-      <c r="L111" s="112"/>
-      <c r="M111" s="111"/>
+      <c r="C111" s="110"/>
+      <c r="D111" s="110"/>
+      <c r="E111" s="111"/>
+      <c r="F111" s="111"/>
+      <c r="G111" s="110"/>
+      <c r="H111" s="110"/>
+      <c r="I111" s="111"/>
+      <c r="J111" s="111"/>
+      <c r="K111" s="111"/>
+      <c r="L111" s="111"/>
+      <c r="M111" s="110"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C112" s="111"/>
-      <c r="D112" s="111"/>
-      <c r="E112" s="112"/>
-      <c r="F112" s="112"/>
-      <c r="G112" s="111"/>
-      <c r="H112" s="111"/>
-      <c r="I112" s="112"/>
-      <c r="J112" s="112"/>
-      <c r="K112" s="112"/>
-      <c r="L112" s="112"/>
-      <c r="M112" s="111"/>
+      <c r="C112" s="110"/>
+      <c r="D112" s="110"/>
+      <c r="E112" s="111"/>
+      <c r="F112" s="111"/>
+      <c r="G112" s="110"/>
+      <c r="H112" s="110"/>
+      <c r="I112" s="111"/>
+      <c r="J112" s="111"/>
+      <c r="K112" s="111"/>
+      <c r="L112" s="111"/>
+      <c r="M112" s="110"/>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B113" s="115"/>
-      <c r="C113" s="111"/>
-      <c r="D113" s="111"/>
-      <c r="E113" s="112"/>
-      <c r="F113" s="112"/>
-      <c r="G113" s="111"/>
-      <c r="H113" s="111"/>
-      <c r="I113" s="112"/>
-      <c r="J113" s="112"/>
-      <c r="K113" s="112"/>
-      <c r="L113" s="112"/>
-      <c r="M113" s="111"/>
+      <c r="B113" s="114"/>
+      <c r="C113" s="110"/>
+      <c r="D113" s="110"/>
+      <c r="E113" s="111"/>
+      <c r="F113" s="111"/>
+      <c r="G113" s="110"/>
+      <c r="H113" s="110"/>
+      <c r="I113" s="111"/>
+      <c r="J113" s="111"/>
+      <c r="K113" s="111"/>
+      <c r="L113" s="111"/>
+      <c r="M113" s="110"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D4:O7"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{6004F551-D2AE-4F0A-9A55-E3FD96508926}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{1E742D95-F0B0-4312-B53B-542C04D0DC86}"/>
-    <hyperlink ref="B107" r:id="rId3" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please click here the visit the Africa's Development Dynamics website." xr:uid="{4192769F-C4AE-4CEE-88EF-8F93174EF3C2}"/>
-    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{C467A5F0-EDCB-4600-BE6F-B991C9667FD6}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{53FBEDC7-C867-4AE3-98E8-76ACE4105EC3}"/>
+    <hyperlink ref="B109" r:id="rId1" xr:uid="{EA82AA79-F9BD-4292-9DB5-9E1CE16D0F62}"/>
+    <hyperlink ref="B110" r:id="rId2" xr:uid="{162248FC-0182-44A8-84AA-B3B4D7587475}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{E7D9975A-9F03-4B79-862A-503A4AAE2D61}"/>
+    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{90F0B302-708E-4CCC-BCEA-55085E070736}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{5C7CA4F8-33E8-4F3B-A7D3-339C00726763}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2025_Tableau_annexe_Tab12.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{487A92BD-5A0C-46CC-9620-5513233E1CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{613107A6-24BE-4303-BF4C-9DE6448781AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{5342E3E4-E5EC-4A62-8325-6AFBFEC11D3C}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{FAA93544-DF8C-4ED3-A350-BC47192327A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab12" sheetId="1" r:id="rId1"/>
@@ -543,13 +543,13 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "PaÃ­ses Africanos de LÃ­ngua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado ComÃºn del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>GDP ratios are calculated using investment, capital stock and GPD in constant 2017 international dollars. Figures in US dollars are converted from national currency using the ratio of GDP in US dollars to gdp in national currency.</t>
   </si>
   <si>
-    <t>Source: Author's calculations based on IMF Investment and Capital Stock (ICSD) dataset (updated on Oct 27, 2023) and IMF World Economic Outlook Database April 2025.</t>
+    <t>Source: Author's calculations based on IMF Investment and Capital Stock (ICSD) dataset (updated on Oct 27, 2023) and IMF World Economic Outlook Database October 2025.</t>
   </si>
   <si>
     <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
@@ -1561,7 +1561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE3E2D4-5BC7-4E30-9588-B9AEEB6D9DDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9ADF3D-B42A-47C4-BE12-012322B476C9}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1569,19 +1569,19 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.140625" style="115" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="116" customWidth="1"/>
-    <col min="7" max="8" width="14.140625" style="115" customWidth="1"/>
-    <col min="9" max="12" width="14.140625" style="117" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="115" customWidth="1"/>
-    <col min="14" max="15" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.1796875" style="115" customWidth="1"/>
+    <col min="5" max="6" width="14.1796875" style="116" customWidth="1"/>
+    <col min="7" max="8" width="14.1796875" style="115" customWidth="1"/>
+    <col min="9" max="12" width="14.1796875" style="117" customWidth="1"/>
+    <col min="13" max="13" width="14.1796875" style="115" customWidth="1"/>
+    <col min="14" max="15" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1597,7 +1597,7 @@
       <c r="L1" s="4"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>14</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>171558.34182199999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>16</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>36807.149439000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>18</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>6530.26793</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>21</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>4153.740315</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>23</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>8001.1880629999996</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>22905.526626999999</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>27</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>17611.587184</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>29</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>670542.94350000005</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>31</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>53225.255808000002</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="13" t="s">
         <v>33</v>
       </c>
@@ -2048,28 +2048,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="38"/>
       <c r="B13" s="39" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="40">
-        <v>3.093502</v>
+        <v>3.093512</v>
       </c>
       <c r="D13" s="41">
-        <v>0.35926999999999998</v>
+        <v>0.353163</v>
       </c>
       <c r="E13" s="42">
-        <v>14.160526000000001</v>
+        <v>14.158559</v>
       </c>
       <c r="F13" s="42">
-        <v>66.448480000000004</v>
+        <v>66.454435000000004</v>
       </c>
       <c r="G13" s="41">
-        <v>2.960404</v>
+        <v>2.9166859999999999</v>
       </c>
       <c r="H13" s="43">
-        <v>171.949837</v>
+        <v>171.93528699999999</v>
       </c>
       <c r="I13" s="44">
         <v>18478.683840000002</v>
@@ -2087,7 +2087,7 @@
         <v>991336.00068699999</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>36</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>3448.1380389999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
         <v>38</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>64190.758503999998</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>40</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>4904.7489800000003</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>42</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>15116.428018000001</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>44</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>54498.149121000002</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>46</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>101019.496499</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
         <v>48</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>22668.329806999998</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>50</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>36144.020709999997</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="13" t="s">
         <v>52</v>
       </c>
@@ -2456,28 +2456,28 @@
         <v>770.29422699999998</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="38"/>
       <c r="B23" s="39" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="40">
-        <v>3.0103680000000002</v>
+        <v>3.0146730000000002</v>
       </c>
       <c r="D23" s="41">
-        <v>0.26627699999999999</v>
+        <v>0.26611200000000002</v>
       </c>
       <c r="E23" s="42">
-        <v>11.238516000000001</v>
+        <v>11.239784999999999</v>
       </c>
       <c r="F23" s="42">
-        <v>63.239420000000003</v>
+        <v>63.459324000000002</v>
       </c>
       <c r="G23" s="41">
-        <v>1.6231040000000001</v>
+        <v>1.622449</v>
       </c>
       <c r="H23" s="43">
-        <v>135.029459</v>
+        <v>135.09580500000001</v>
       </c>
       <c r="I23" s="44">
         <v>6691.2481690000004</v>
@@ -2495,7 +2495,7 @@
         <v>302760.36390400003</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
         <v>55</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>2659.8536439999998</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
         <v>57</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>3563.6246289999999</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
         <v>59</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>1004.412447</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
         <v>61</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>85795.315977000006</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
         <v>63</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>105468.35798099999</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
         <v>65</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>21761.823391000002</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
         <v>67</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>23074.093098000001</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
         <v>69</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>9109.6686399999999</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
         <v>71</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>4391.1314089999996</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
         <v>73</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="s">
         <v>75</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>11154.128364</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="13" t="s">
         <v>77</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
         <v>79</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>115414.75530999999</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="13" t="s">
         <v>81</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>57136.385463999999</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="38"/>
       <c r="B38" s="39" t="s">
         <v>83</v>
@@ -3108,7 +3108,7 @@
         <v>440533.55035400001</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="13" t="s">
         <v>84</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>398259.40620299999</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
         <v>86</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>255848.87154399999</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="s">
         <v>88</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="13" t="s">
         <v>90</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>29393.568212999999</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
         <v>92</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>287321.94618099998</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="13" t="s">
         <v>94</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>76338.066298000005</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="38"/>
       <c r="B45" s="39" t="s">
         <v>96</v>
@@ -3393,7 +3393,7 @@
         <v>1047161.858439</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="13" t="s">
         <v>97</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>19128.677952999999</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="13" t="s">
         <v>99</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>13778.808299</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="s">
         <v>101</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>6054.0642809999999</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="13" t="s">
         <v>103</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>55137.409108</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="s">
         <v>105</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>2203.5876760000001</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="13" t="s">
         <v>107</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>148668.85617399999</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
         <v>109</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>16496.478819</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="s">
         <v>111</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>435.57166000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
         <v>113</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>9201.2977599999995</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
         <v>115</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>17977.290388000001</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="s">
         <v>117</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>25622.687037</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="13" t="s">
         <v>119</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>1196799.690889</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="13" t="s">
         <v>121</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>38526.859522999999</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="13" t="s">
         <v>123</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>5131.1714009999996</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="13" t="s">
         <v>125</v>
       </c>
@@ -4008,28 +4008,28 @@
         <v>8239.7854029999999</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="38"/>
       <c r="B61" s="39" t="s">
         <v>127</v>
       </c>
       <c r="C61" s="40">
-        <v>1.9633879999999999</v>
+        <v>1.805126</v>
       </c>
       <c r="D61" s="41">
-        <v>0.14913399999999999</v>
+        <v>0.12540399999999999</v>
       </c>
       <c r="E61" s="42">
-        <v>9.6187290000000001</v>
+        <v>9.4177990000000005</v>
       </c>
       <c r="F61" s="42">
-        <v>49.976098999999998</v>
+        <v>51.269466999999999</v>
       </c>
       <c r="G61" s="41">
-        <v>1.4738979999999999</v>
+        <v>1.344268</v>
       </c>
       <c r="H61" s="43">
-        <v>97.194764000000006</v>
+        <v>97.209119000000001</v>
       </c>
       <c r="I61" s="44">
         <v>25874.053468999999</v>
@@ -4047,28 +4047,28 @@
         <v>1563402.2363710001</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="70"/>
       <c r="B62" s="71" t="s">
         <v>128</v>
       </c>
       <c r="C62" s="72">
-        <v>4.050853</v>
+        <v>3.87107</v>
       </c>
       <c r="D62" s="73">
-        <v>0.19359299999999999</v>
+        <v>0.18326100000000001</v>
       </c>
       <c r="E62" s="74">
-        <v>10.967457</v>
+        <v>10.820577</v>
       </c>
       <c r="F62" s="74">
-        <v>60.517581999999997</v>
+        <v>60.268140000000002</v>
       </c>
       <c r="G62" s="73">
-        <v>1.950814</v>
+        <v>1.8783939999999999</v>
       </c>
       <c r="H62" s="75">
-        <v>110.582194</v>
+        <v>109.75241699999999</v>
       </c>
       <c r="I62" s="76">
         <v>141767.472025</v>
@@ -4086,184 +4086,184 @@
         <v>4345194.0097549995</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="70"/>
       <c r="B63" s="71" t="s">
         <v>129</v>
       </c>
       <c r="C63" s="72">
-        <v>6.3901110000000001</v>
+        <v>6.3914410000000004</v>
       </c>
       <c r="D63" s="73">
-        <v>0.219694</v>
+        <v>0.22025500000000001</v>
       </c>
       <c r="E63" s="74">
-        <v>19.898705</v>
+        <v>19.891061000000001</v>
       </c>
       <c r="F63" s="74">
-        <v>84.340939000000006</v>
+        <v>84.366876000000005</v>
       </c>
       <c r="G63" s="73">
-        <v>2.8995160000000002</v>
+        <v>2.9013909999999998</v>
       </c>
       <c r="H63" s="75">
-        <v>185.51520099999999</v>
+        <v>185.49628100000001</v>
       </c>
       <c r="I63" s="76">
-        <v>4830545.7647839999</v>
+        <v>4829931.3367050001</v>
       </c>
       <c r="J63" s="74">
-        <v>16484859.227853</v>
+        <v>16483170.530609</v>
       </c>
       <c r="K63" s="74">
-        <v>66192161.841688</v>
+        <v>66187409.511209004</v>
       </c>
       <c r="L63" s="74">
-        <v>1276727.03168</v>
+        <v>1276586.1225650001</v>
       </c>
       <c r="M63" s="75">
-        <v>158007190.77550501</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+        <v>157996298.66277501</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="77"/>
       <c r="B64" s="78" t="s">
         <v>130</v>
       </c>
       <c r="C64" s="79">
-        <v>2.8029090000000001</v>
+        <v>2.8037079999999999</v>
       </c>
       <c r="D64" s="80">
-        <v>0.44063400000000003</v>
+        <v>0.44112899999999999</v>
       </c>
       <c r="E64" s="81">
-        <v>14.423833999999999</v>
+        <v>14.425298</v>
       </c>
       <c r="F64" s="81">
-        <v>86.554902999999996</v>
+        <v>86.533100000000005</v>
       </c>
       <c r="G64" s="80">
-        <v>7.9627559999999997</v>
+        <v>7.9652710000000004</v>
       </c>
       <c r="H64" s="82">
-        <v>190.57740699999999</v>
+        <v>190.56320099999999</v>
       </c>
       <c r="I64" s="83">
-        <v>137950.32297899999</v>
+        <v>137956.61749999999</v>
       </c>
       <c r="J64" s="81">
-        <v>792052.36499000003</v>
+        <v>792084.94900300005</v>
       </c>
       <c r="K64" s="81">
-        <v>3322430.6806410002</v>
+        <v>3322575.3285229998</v>
       </c>
       <c r="L64" s="81">
-        <v>400722.21903600002</v>
+        <v>400749.91439599998</v>
       </c>
       <c r="M64" s="82">
-        <v>9690192.1980489995</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+        <v>9690581.1512700003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="77"/>
       <c r="B65" s="84" t="s">
         <v>131</v>
       </c>
       <c r="C65" s="85">
-        <v>11.181799</v>
+        <v>11.171244</v>
       </c>
       <c r="D65" s="86">
-        <v>0.21887799999999999</v>
+        <v>0.21865899999999999</v>
       </c>
       <c r="E65" s="87">
-        <v>24.329308000000001</v>
+        <v>24.319725999999999</v>
       </c>
       <c r="F65" s="87">
-        <v>114.855711</v>
+        <v>114.81050399999999</v>
       </c>
       <c r="G65" s="86">
-        <v>2.6617479999999998</v>
+        <v>2.6591109999999998</v>
       </c>
       <c r="H65" s="88">
-        <v>174.626092</v>
+        <v>174.685969</v>
       </c>
       <c r="I65" s="89">
-        <v>2613160.7084130002</v>
+        <v>2612539.9214550001</v>
       </c>
       <c r="J65" s="87">
-        <v>5361812.7395010004</v>
+        <v>5360091.1255090004</v>
       </c>
       <c r="K65" s="87">
-        <v>26277267.105792999</v>
+        <v>26272368.621847998</v>
       </c>
       <c r="L65" s="87">
-        <v>507300.62127800001</v>
+        <v>507131.96187300002</v>
       </c>
       <c r="M65" s="88">
-        <v>37292201.596689999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>37280917.679530002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="77"/>
       <c r="B66" s="90" t="s">
         <v>132</v>
       </c>
       <c r="C66" s="91">
-        <v>6.2726879999999996</v>
+        <v>6.257123</v>
       </c>
       <c r="D66" s="92">
-        <v>0.21783</v>
+        <v>0.217449</v>
       </c>
       <c r="E66" s="93">
-        <v>19.450384</v>
+        <v>19.407667</v>
       </c>
       <c r="F66" s="93">
-        <v>83.140972000000005</v>
+        <v>83.078457999999998</v>
       </c>
       <c r="G66" s="92">
-        <v>2.831998</v>
+        <v>2.8240219999999998</v>
       </c>
       <c r="H66" s="94">
-        <v>181.74087499999999</v>
+        <v>181.44670099999999</v>
       </c>
       <c r="I66" s="95">
-        <v>4972313.2368099997</v>
+        <v>4971698.8087309999</v>
       </c>
       <c r="J66" s="93">
-        <v>16908987.640083</v>
+        <v>16907298.942839</v>
       </c>
       <c r="K66" s="93">
-        <v>68554650.888392001</v>
+        <v>68549898.557913005</v>
       </c>
       <c r="L66" s="93">
-        <v>1412777.5489109999</v>
+        <v>1412636.639796</v>
       </c>
       <c r="M66" s="94">
-        <v>162352384.78525999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+        <v>162341492.67253</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="77"/>
       <c r="B67" s="84" t="s">
         <v>133</v>
       </c>
       <c r="C67" s="85">
-        <v>4.7278169999999999</v>
+        <v>4.7276369999999996</v>
       </c>
       <c r="D67" s="86">
-        <v>0.155946</v>
+        <v>0.15490399999999999</v>
       </c>
       <c r="E67" s="87">
-        <v>7.3972449999999998</v>
+        <v>7.397017</v>
       </c>
       <c r="F67" s="87">
-        <v>48.740442000000002</v>
+        <v>48.745415999999999</v>
       </c>
       <c r="G67" s="86">
-        <v>1.1147370000000001</v>
+        <v>1.1109070000000001</v>
       </c>
       <c r="H67" s="88">
-        <v>62.387146000000001</v>
+        <v>62.392156999999997</v>
       </c>
       <c r="I67" s="89">
         <v>57497.962122999998</v>
@@ -4281,28 +4281,28 @@
         <v>818375.95085999998</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="77"/>
       <c r="B68" s="84" t="s">
         <v>134</v>
       </c>
       <c r="C68" s="85">
-        <v>3.0587689999999998</v>
+        <v>2.854752</v>
       </c>
       <c r="D68" s="86">
-        <v>0.188248</v>
+        <v>0.17202000000000001</v>
       </c>
       <c r="E68" s="87">
-        <v>8.4988840000000003</v>
+        <v>8.5134699999999999</v>
       </c>
       <c r="F68" s="87">
-        <v>49.841816000000001</v>
+        <v>50.565479000000003</v>
       </c>
       <c r="G68" s="86">
-        <v>1.800897</v>
+        <v>1.6998850000000001</v>
       </c>
       <c r="H68" s="88">
-        <v>85.998152000000005</v>
+        <v>87.227396999999996</v>
       </c>
       <c r="I68" s="89">
         <v>61252.031579000002</v>
@@ -4317,10 +4317,10 @@
         <v>38908.721179</v>
       </c>
       <c r="M68" s="88">
-        <v>2224298.3942840002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2224298.3942829999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="77"/>
       <c r="B69" s="84" t="s">
         <v>135</v>
@@ -4359,28 +4359,28 @@
         <v>402750.93029699998</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="77"/>
       <c r="B70" s="84" t="s">
         <v>136</v>
       </c>
       <c r="C70" s="85">
-        <v>3.232313</v>
+        <v>3.2346080000000001</v>
       </c>
       <c r="D70" s="86">
-        <v>0.17116799999999999</v>
+        <v>0.17110300000000001</v>
       </c>
       <c r="E70" s="87">
-        <v>12.448333999999999</v>
+        <v>12.448785000000001</v>
       </c>
       <c r="F70" s="87">
-        <v>86.211862999999994</v>
+        <v>86.326777000000007</v>
       </c>
       <c r="G70" s="86">
-        <v>1.0229980000000001</v>
+        <v>1.0227850000000001</v>
       </c>
       <c r="H70" s="88">
-        <v>163.88102900000001</v>
+        <v>163.91137699999999</v>
       </c>
       <c r="I70" s="89">
         <v>10506.297004</v>
@@ -4398,28 +4398,28 @@
         <v>483428.374366</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="77"/>
       <c r="B71" s="84" t="s">
         <v>137</v>
       </c>
       <c r="C71" s="85">
-        <v>1.9633879999999999</v>
+        <v>1.805126</v>
       </c>
       <c r="D71" s="86">
-        <v>0.14913399999999999</v>
+        <v>0.12540399999999999</v>
       </c>
       <c r="E71" s="87">
-        <v>9.6187290000000001</v>
+        <v>9.4177990000000005</v>
       </c>
       <c r="F71" s="87">
-        <v>49.976098999999998</v>
+        <v>51.269466999999999</v>
       </c>
       <c r="G71" s="86">
-        <v>1.4738979999999999</v>
+        <v>1.344268</v>
       </c>
       <c r="H71" s="88">
-        <v>97.194764000000006</v>
+        <v>97.209119000000001</v>
       </c>
       <c r="I71" s="89">
         <v>25874.053468999999</v>
@@ -4437,7 +4437,7 @@
         <v>1563402.2363710001</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="77"/>
       <c r="B72" s="84" t="s">
         <v>138</v>
@@ -4476,28 +4476,28 @@
         <v>263117.81241399999</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="77"/>
       <c r="B73" s="84" t="s">
         <v>139</v>
       </c>
       <c r="C73" s="85">
-        <v>3.4410129999999999</v>
+        <v>3.44096</v>
       </c>
       <c r="D73" s="86">
-        <v>0.29011199999999998</v>
+        <v>0.28633799999999998</v>
       </c>
       <c r="E73" s="87">
-        <v>13.938453000000001</v>
+        <v>13.93695</v>
       </c>
       <c r="F73" s="87">
-        <v>61.873193000000001</v>
+        <v>61.878667</v>
       </c>
       <c r="G73" s="86">
-        <v>2.4567380000000001</v>
+        <v>2.4298479999999998</v>
       </c>
       <c r="H73" s="88">
-        <v>157.52727999999999</v>
+        <v>157.518404</v>
       </c>
       <c r="I73" s="89">
         <v>30158.875660999998</v>
@@ -4515,7 +4515,7 @@
         <v>1259657.1540379999</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="77"/>
       <c r="B74" s="84" t="s">
         <v>140</v>
@@ -4554,28 +4554,28 @@
         <v>791312.98689499998</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="77"/>
       <c r="B75" s="84" t="s">
         <v>141</v>
       </c>
       <c r="C75" s="96">
-        <v>3.4273169999999999</v>
+        <v>3.4273210000000001</v>
       </c>
       <c r="D75" s="97">
         <v>6.8791000000000005E-2</v>
       </c>
       <c r="E75" s="98">
-        <v>15.516767</v>
+        <v>15.516749000000001</v>
       </c>
       <c r="F75" s="98">
-        <v>114.408733</v>
+        <v>114.408891</v>
       </c>
       <c r="G75" s="97">
-        <v>0.89192700000000003</v>
+        <v>0.89192300000000002</v>
       </c>
       <c r="H75" s="99">
-        <v>196.06800999999999</v>
+        <v>196.06800899999999</v>
       </c>
       <c r="I75" s="100">
         <v>4057.1853019999999</v>
@@ -4593,7 +4593,7 @@
         <v>201723.79861699999</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="77"/>
       <c r="B76" s="101" t="s">
         <v>142</v>
@@ -4608,52 +4608,52 @@
         <v>20.482403000000001</v>
       </c>
       <c r="F76" s="104">
-        <v>53.482208999999997</v>
+        <v>53.482208</v>
       </c>
       <c r="G76" s="103">
         <v>5.4876569999999996</v>
       </c>
       <c r="H76" s="105">
-        <v>179.937647</v>
+        <v>179.937648</v>
       </c>
       <c r="I76" s="106">
-        <v>155046.15015999999</v>
+        <v>154425.36320200001</v>
       </c>
       <c r="J76" s="104">
-        <v>701709.86030599999</v>
+        <v>699988.24631399999</v>
       </c>
       <c r="K76" s="104">
-        <v>1875694.9354280001</v>
+        <v>1870796.4514840001</v>
       </c>
       <c r="L76" s="104">
-        <v>177626.35967100001</v>
+        <v>177457.700266</v>
       </c>
       <c r="M76" s="105">
-        <v>6234531.1181380004</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+        <v>6223247.2009779997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="77"/>
       <c r="B77" s="84" t="s">
         <v>143</v>
       </c>
       <c r="C77" s="85">
-        <v>3.1080839999999998</v>
+        <v>3.1090170000000001</v>
       </c>
       <c r="D77" s="86">
-        <v>0.513656</v>
+        <v>0.51409899999999997</v>
       </c>
       <c r="E77" s="87">
-        <v>13.997108000000001</v>
+        <v>13.999097000000001</v>
       </c>
       <c r="F77" s="87">
-        <v>101.65136699999999</v>
+        <v>101.607215</v>
       </c>
       <c r="G77" s="86">
-        <v>10.109038999999999</v>
+        <v>10.109353</v>
       </c>
       <c r="H77" s="88">
-        <v>192.22953000000001</v>
+        <v>192.20196799999999</v>
       </c>
       <c r="I77" s="89">
         <v>97020.024057999995</v>
@@ -4671,28 +4671,28 @@
         <v>6148419.0586390002</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="77"/>
       <c r="B78" s="84" t="s">
         <v>144</v>
       </c>
       <c r="C78" s="85">
-        <v>3.0159280000000002</v>
+        <v>3.0157319999999999</v>
       </c>
       <c r="D78" s="86">
         <v>4.5432E-2</v>
       </c>
       <c r="E78" s="87">
-        <v>18.722802999999999</v>
+        <v>18.722881999999998</v>
       </c>
       <c r="F78" s="87">
-        <v>53.933114000000003</v>
+        <v>53.930540999999998</v>
       </c>
       <c r="G78" s="86">
-        <v>1.0550930000000001</v>
+        <v>1.0550379999999999</v>
       </c>
       <c r="H78" s="88">
-        <v>203.778424</v>
+        <v>203.77959000000001</v>
       </c>
       <c r="I78" s="89">
         <v>482464.38322399999</v>
@@ -4710,28 +4710,28 @@
         <v>33089652.521283999</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="77"/>
       <c r="B79" s="90" t="s">
         <v>145</v>
       </c>
       <c r="C79" s="91">
-        <v>3.4220109999999999</v>
+        <v>3.4218820000000001</v>
       </c>
       <c r="D79" s="92">
-        <v>0.20888100000000001</v>
+        <v>0.210733</v>
       </c>
       <c r="E79" s="93">
-        <v>18.280688999999999</v>
+        <v>18.283149000000002</v>
       </c>
       <c r="F79" s="93">
-        <v>60.283569999999997</v>
+        <v>60.271127</v>
       </c>
       <c r="G79" s="92">
-        <v>2.2793770000000002</v>
+        <v>2.2883179999999999</v>
       </c>
       <c r="H79" s="94">
-        <v>196.28340399999999</v>
+        <v>196.312793</v>
       </c>
       <c r="I79" s="95">
         <v>1881419.3621660001</v>
@@ -4749,28 +4749,28 @@
         <v>105934137.445703</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="77"/>
       <c r="B80" s="101" t="s">
         <v>146</v>
       </c>
       <c r="C80" s="102">
-        <v>6.5654570000000003</v>
+        <v>6.5664699999999998</v>
       </c>
       <c r="D80" s="103">
-        <v>5.2586000000000001E-2</v>
+        <v>5.2579000000000001E-2</v>
       </c>
       <c r="E80" s="104">
-        <v>15.189909999999999</v>
+        <v>15.191379</v>
       </c>
       <c r="F80" s="104">
-        <v>118.77601</v>
+        <v>118.79319</v>
       </c>
       <c r="G80" s="103">
-        <v>1.3962030000000001</v>
+        <v>1.3965190000000001</v>
       </c>
       <c r="H80" s="105">
-        <v>173.59429900000001</v>
+        <v>173.61290600000001</v>
       </c>
       <c r="I80" s="106">
         <v>29656.255073</v>
@@ -4788,28 +4788,28 @@
         <v>744846.43653800001</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="77"/>
       <c r="B81" s="84" t="s">
         <v>147</v>
       </c>
       <c r="C81" s="85">
-        <v>5.0838549999999998</v>
+        <v>5.1361660000000002</v>
       </c>
       <c r="D81" s="86">
-        <v>7.7037999999999995E-2</v>
+        <v>7.6608999999999997E-2</v>
       </c>
       <c r="E81" s="87">
-        <v>13.120148</v>
+        <v>13.134835000000001</v>
       </c>
       <c r="F81" s="87">
-        <v>110.073542</v>
+        <v>110.154674</v>
       </c>
       <c r="G81" s="86">
-        <v>0.80404299999999995</v>
+        <v>0.79988999999999999</v>
       </c>
       <c r="H81" s="88">
-        <v>172.921648</v>
+        <v>172.69158200000001</v>
       </c>
       <c r="I81" s="89">
         <v>226286.908914</v>
@@ -4827,28 +4827,28 @@
         <v>7481825.0770100001</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="77"/>
       <c r="B82" s="84" t="s">
         <v>148</v>
       </c>
       <c r="C82" s="85">
-        <v>3.5994220000000001</v>
+        <v>3.422771</v>
       </c>
       <c r="D82" s="86">
-        <v>0.21729599999999999</v>
+        <v>0.20358899999999999</v>
       </c>
       <c r="E82" s="87">
-        <v>10.209428000000001</v>
+        <v>10.093624</v>
       </c>
       <c r="F82" s="87">
-        <v>50.103284000000002</v>
+        <v>50.572603000000001</v>
       </c>
       <c r="G82" s="86">
-        <v>2.0444300000000002</v>
+        <v>1.953638</v>
       </c>
       <c r="H82" s="88">
-        <v>99.318128000000002</v>
+        <v>99.172985999999995</v>
       </c>
       <c r="I82" s="89">
         <v>112111.216953</v>
@@ -4866,67 +4866,67 @@
         <v>3600347.5732180001</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="77"/>
       <c r="B83" s="90" t="s">
         <v>149</v>
       </c>
       <c r="C83" s="91">
-        <v>6.5079079999999996</v>
+        <v>6.5064820000000001</v>
       </c>
       <c r="D83" s="92">
-        <v>0.23302</v>
+        <v>0.23375199999999999</v>
       </c>
       <c r="E83" s="93">
-        <v>20.509988</v>
+        <v>20.510242999999999</v>
       </c>
       <c r="F83" s="93">
-        <v>82.020399999999995</v>
+        <v>82.003529</v>
       </c>
       <c r="G83" s="92">
-        <v>3.0952679999999999</v>
+        <v>3.0988380000000002</v>
       </c>
       <c r="H83" s="94">
-        <v>186.65087399999999</v>
+        <v>186.66978</v>
       </c>
       <c r="I83" s="95">
-        <v>4604258.8558710003</v>
+        <v>4603644.4277919997</v>
       </c>
       <c r="J83" s="93">
-        <v>15859037.512118001</v>
+        <v>15857348.814874001</v>
       </c>
       <c r="K83" s="93">
-        <v>62242475.415592998</v>
+        <v>62237723.085114002</v>
       </c>
       <c r="L83" s="93">
-        <v>1246804.0412880001</v>
+        <v>1246663.1321739999</v>
       </c>
       <c r="M83" s="94">
-        <v>150525365.698495</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+        <v>150514473.585765</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="77"/>
       <c r="B84" s="101" t="s">
         <v>150</v>
       </c>
       <c r="C84" s="102">
-        <v>4.0455569999999996</v>
+        <v>4.0479070000000004</v>
       </c>
       <c r="D84" s="103">
-        <v>0.30618800000000002</v>
+        <v>0.306114</v>
       </c>
       <c r="E84" s="104">
-        <v>10.056414</v>
+        <v>10.057430999999999</v>
       </c>
       <c r="F84" s="104">
-        <v>48.087702999999998</v>
+        <v>48.217281</v>
       </c>
       <c r="G84" s="103">
-        <v>1.161538</v>
+        <v>1.161341</v>
       </c>
       <c r="H84" s="105">
-        <v>84.418138999999996</v>
+        <v>84.466842999999997</v>
       </c>
       <c r="I84" s="106">
         <v>14983.80392</v>
@@ -4944,7 +4944,7 @@
         <v>338152.14415499999</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="77"/>
       <c r="B85" s="107" t="s">
         <v>151</v>
@@ -4983,28 +4983,28 @@
         <v>34657.823701000001</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="77"/>
       <c r="B86" s="84" t="s">
         <v>152</v>
       </c>
       <c r="C86" s="85">
-        <v>3.3790439999999999</v>
+        <v>3.173721</v>
       </c>
       <c r="D86" s="86">
-        <v>0.152868</v>
+        <v>0.141177</v>
       </c>
       <c r="E86" s="87">
-        <v>9.3860250000000001</v>
+        <v>9.3151119999999992</v>
       </c>
       <c r="F86" s="87">
-        <v>54.064053000000001</v>
+        <v>54.278920999999997</v>
       </c>
       <c r="G86" s="86">
-        <v>1.857073</v>
+        <v>1.756767</v>
       </c>
       <c r="H86" s="88">
-        <v>99.223989000000003</v>
+        <v>99.041172000000003</v>
       </c>
       <c r="I86" s="89">
         <v>79718.277220999997</v>
@@ -5022,7 +5022,7 @@
         <v>2723305.411177</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="77"/>
       <c r="B87" s="84" t="s">
         <v>153</v>
@@ -5046,43 +5046,43 @@
         <v>135.035258</v>
       </c>
       <c r="I87" s="89">
-        <v>274107.26648699999</v>
+        <v>273492.77405100001</v>
       </c>
       <c r="J87" s="87">
-        <v>955706.76771399996</v>
+        <v>954017.73773599998</v>
       </c>
       <c r="K87" s="87">
-        <v>2981481.2032090002</v>
+        <v>2976727.367147</v>
       </c>
       <c r="L87" s="87">
-        <v>274933.30642600002</v>
+        <v>274792.34237999999</v>
       </c>
       <c r="M87" s="88">
-        <v>7621437.3113409998</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+        <v>7610542.3474030001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="77"/>
       <c r="B88" s="84" t="s">
         <v>154</v>
       </c>
       <c r="C88" s="85">
-        <v>5.1822480000000004</v>
+        <v>5.1822509999999999</v>
       </c>
       <c r="D88" s="86">
         <v>0.28870800000000002</v>
       </c>
       <c r="E88" s="87">
-        <v>14.511837999999999</v>
+        <v>14.511832999999999</v>
       </c>
       <c r="F88" s="87">
-        <v>83.175703999999996</v>
+        <v>83.175713000000002</v>
       </c>
       <c r="G88" s="86">
         <v>2.96089</v>
       </c>
       <c r="H88" s="88">
-        <v>160.31792300000001</v>
+        <v>160.31789499999999</v>
       </c>
       <c r="I88" s="89">
         <v>36603.138742000003</v>
@@ -5100,67 +5100,67 @@
         <v>1193550.007038</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="77"/>
       <c r="B89" s="84" t="s">
         <v>155</v>
       </c>
       <c r="C89" s="85">
-        <v>10.910596999999999</v>
+        <v>10.891171</v>
       </c>
       <c r="D89" s="86">
-        <v>0.29765000000000003</v>
+        <v>0.29860300000000001</v>
       </c>
       <c r="E89" s="87">
-        <v>24.203724000000001</v>
+        <v>24.190125999999999</v>
       </c>
       <c r="F89" s="87">
-        <v>118.87467700000001</v>
+        <v>118.737711</v>
       </c>
       <c r="G89" s="86">
-        <v>3.2938860000000001</v>
+        <v>3.2967770000000001</v>
       </c>
       <c r="H89" s="88">
-        <v>191.095744</v>
+        <v>191.18241399999999</v>
       </c>
       <c r="I89" s="89">
-        <v>2508811.994225</v>
+        <v>2508812.058582</v>
       </c>
       <c r="J89" s="87">
-        <v>5353641.5732500004</v>
+        <v>5353641.9059849996</v>
       </c>
       <c r="K89" s="87">
-        <v>27032499.817807999</v>
+        <v>27032501.323391002</v>
       </c>
       <c r="L89" s="87">
-        <v>703397.86416999996</v>
+        <v>703397.91910099995</v>
       </c>
       <c r="M89" s="88">
-        <v>41374443.414439999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>41374446.265648998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="77"/>
       <c r="B90" s="90" t="s">
         <v>156</v>
       </c>
       <c r="C90" s="91">
-        <v>3.7198199999999999</v>
+        <v>3.7335850000000002</v>
       </c>
       <c r="D90" s="92">
-        <v>5.8029999999999998E-2</v>
+        <v>5.8030999999999999E-2</v>
       </c>
       <c r="E90" s="93">
-        <v>17.785504</v>
+        <v>17.777591000000001</v>
       </c>
       <c r="F90" s="93">
-        <v>64.371702999999997</v>
+        <v>64.498437999999993</v>
       </c>
       <c r="G90" s="92">
-        <v>1.359861</v>
+        <v>1.3598619999999999</v>
       </c>
       <c r="H90" s="94">
-        <v>191.55293</v>
+        <v>191.43943999999999</v>
       </c>
       <c r="I90" s="95">
         <v>2046099.059322</v>
@@ -5178,28 +5178,28 @@
         <v>108981043.35743199</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="77"/>
       <c r="B91" s="101" t="s">
         <v>157</v>
       </c>
       <c r="C91" s="102">
-        <v>5.0238240000000003</v>
+        <v>5.0233410000000003</v>
       </c>
       <c r="D91" s="103">
-        <v>0.19936400000000001</v>
+        <v>0.199241</v>
       </c>
       <c r="E91" s="104">
-        <v>13.846709000000001</v>
+        <v>13.846926</v>
       </c>
       <c r="F91" s="104">
-        <v>64.202160000000006</v>
+        <v>64.245913999999999</v>
       </c>
       <c r="G91" s="103">
-        <v>1.177988</v>
+        <v>1.1782330000000001</v>
       </c>
       <c r="H91" s="105">
-        <v>114.219353</v>
+        <v>114.22244999999999</v>
       </c>
       <c r="I91" s="106">
         <v>41209.265919999998</v>
@@ -5217,7 +5217,7 @@
         <v>878068.61616600002</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="77"/>
       <c r="B92" s="84" t="s">
         <v>158</v>
@@ -5241,43 +5241,43 @@
         <v>139.94013799999999</v>
       </c>
       <c r="I92" s="89">
-        <v>36364.253690999998</v>
+        <v>35743.466733000001</v>
       </c>
       <c r="J92" s="87">
-        <v>108696.765524</v>
+        <v>106975.151532</v>
       </c>
       <c r="K92" s="87">
-        <v>348924.09039099998</v>
+        <v>344025.606447</v>
       </c>
       <c r="L92" s="87">
-        <v>27658.952583999999</v>
+        <v>27490.293179</v>
       </c>
       <c r="M92" s="88">
-        <v>786623.76575400005</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+        <v>775339.84859499999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="77"/>
       <c r="B93" s="84" t="s">
         <v>159</v>
       </c>
       <c r="C93" s="85">
-        <v>3.71821</v>
+        <v>3.7182460000000002</v>
       </c>
       <c r="D93" s="86">
-        <v>6.9782999999999998E-2</v>
+        <v>6.9779999999999995E-2</v>
       </c>
       <c r="E93" s="87">
-        <v>11.838645</v>
+        <v>11.838421</v>
       </c>
       <c r="F93" s="87">
-        <v>68.075890000000001</v>
+        <v>68.075796999999994</v>
       </c>
       <c r="G93" s="86">
-        <v>2.3724560000000001</v>
+        <v>2.3724669999999999</v>
       </c>
       <c r="H93" s="88">
-        <v>132.96689799999999</v>
+        <v>132.96522200000001</v>
       </c>
       <c r="I93" s="89">
         <v>1050.5341060000001</v>
@@ -5295,28 +5295,28 @@
         <v>37385.008319</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="77"/>
       <c r="B94" s="84" t="s">
         <v>160</v>
       </c>
       <c r="C94" s="85">
-        <v>4.0399240000000001</v>
+        <v>4.0393439999999998</v>
       </c>
       <c r="D94" s="86">
-        <v>0.26586399999999999</v>
+        <v>0.27118999999999999</v>
       </c>
       <c r="E94" s="87">
-        <v>20.445606000000002</v>
+        <v>20.450181000000001</v>
       </c>
       <c r="F94" s="87">
-        <v>56.354357</v>
+        <v>56.344104000000002</v>
       </c>
       <c r="G94" s="86">
-        <v>3.288316</v>
+        <v>3.3401230000000002</v>
       </c>
       <c r="H94" s="88">
-        <v>185.12541400000001</v>
+        <v>185.173351</v>
       </c>
       <c r="I94" s="89">
         <v>20910.813048</v>
@@ -5334,28 +5334,28 @@
         <v>937855.41355000006</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="77"/>
       <c r="B95" s="84" t="s">
         <v>161</v>
       </c>
       <c r="C95" s="85">
-        <v>6.4862710000000003</v>
+        <v>6.4864759999999997</v>
       </c>
       <c r="D95" s="86">
-        <v>0.12306599999999999</v>
+        <v>0.120406</v>
       </c>
       <c r="E95" s="87">
-        <v>14.44131</v>
+        <v>14.437782</v>
       </c>
       <c r="F95" s="87">
-        <v>56.944794999999999</v>
+        <v>57.070636999999998</v>
       </c>
       <c r="G95" s="86">
-        <v>1.0732980000000001</v>
+        <v>1.0609569999999999</v>
       </c>
       <c r="H95" s="88">
-        <v>94.059517999999997</v>
+        <v>94.105424999999997</v>
       </c>
       <c r="I95" s="89">
         <v>23839.099625999999</v>
@@ -5373,7 +5373,7 @@
         <v>352761.20075900003</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="77"/>
       <c r="B96" s="90" t="s">
         <v>162</v>
@@ -5397,43 +5397,43 @@
         <v>93.848118999999997</v>
       </c>
       <c r="I96" s="95">
-        <v>29498.189051000001</v>
+        <v>29498.189158000001</v>
       </c>
       <c r="J96" s="93">
-        <v>86324.767338999998</v>
+        <v>86324.767808999997</v>
       </c>
       <c r="K96" s="93">
-        <v>365367.38552100002</v>
+        <v>365367.38747199997</v>
       </c>
       <c r="L96" s="93">
-        <v>24073.554835999999</v>
+        <v>24073.555097</v>
       </c>
       <c r="M96" s="94">
-        <v>738460.18719800003</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+        <v>738460.19378700003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="77"/>
       <c r="B97" s="101" t="s">
         <v>163</v>
       </c>
       <c r="C97" s="102">
-        <v>3.6110829999999998</v>
+        <v>3.305644</v>
       </c>
       <c r="D97" s="103">
-        <v>0.148752</v>
+        <v>0.134271</v>
       </c>
       <c r="E97" s="104">
-        <v>11.317484</v>
+        <v>10.977536000000001</v>
       </c>
       <c r="F97" s="104">
-        <v>59.921802</v>
+        <v>59.499110999999999</v>
       </c>
       <c r="G97" s="103">
-        <v>1.1779660000000001</v>
+        <v>1.1338060000000001</v>
       </c>
       <c r="H97" s="105">
-        <v>107.480621</v>
+        <v>106.212666</v>
       </c>
       <c r="I97" s="106">
         <v>67507.174885</v>
@@ -5451,46 +5451,46 @@
         <v>2357696.3224260001</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="77"/>
       <c r="B98" s="90" t="s">
         <v>164</v>
       </c>
       <c r="C98" s="91">
-        <v>4.0638040000000002</v>
+        <v>4.0349750000000002</v>
       </c>
       <c r="D98" s="92">
-        <v>0.282495</v>
+        <v>0.279806</v>
       </c>
       <c r="E98" s="93">
-        <v>12.953607</v>
+        <v>12.975901</v>
       </c>
       <c r="F98" s="93">
-        <v>118.276427</v>
+        <v>117.81852600000001</v>
       </c>
       <c r="G98" s="92">
-        <v>2.5375359999999998</v>
+        <v>2.5140210000000001</v>
       </c>
       <c r="H98" s="94">
-        <v>169.65804700000001</v>
+        <v>170.268856</v>
       </c>
       <c r="I98" s="95">
-        <v>65838.833857999998</v>
+        <v>65218.046900000001</v>
       </c>
       <c r="J98" s="93">
-        <v>208128.95623000001</v>
+        <v>206407.34223800001</v>
       </c>
       <c r="K98" s="93">
-        <v>1022308.479237</v>
+        <v>1017409.995293</v>
       </c>
       <c r="L98" s="93">
-        <v>48914.166424000003</v>
+        <v>48745.507017999997</v>
       </c>
       <c r="M98" s="94">
-        <v>2059293.826448</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2048009.9092890001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="108"/>
       <c r="B99" s="109"/>
       <c r="C99" s="97"/>
@@ -5505,7 +5505,7 @@
       <c r="L99" s="98"/>
       <c r="M99" s="97"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>165</v>
       </c>
@@ -5521,7 +5521,7 @@
       <c r="L100" s="111"/>
       <c r="M100" s="110"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>166</v>
       </c>
@@ -5537,7 +5537,7 @@
       <c r="L101" s="111"/>
       <c r="M101" s="110"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>167</v>
       </c>
@@ -5553,7 +5553,7 @@
       <c r="L102" s="111"/>
       <c r="M102" s="110"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>168</v>
       </c>
@@ -5569,7 +5569,7 @@
       <c r="L103" s="111"/>
       <c r="M103" s="110"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>169</v>
       </c>
@@ -5585,7 +5585,7 @@
       <c r="L104" s="111"/>
       <c r="M104" s="110"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>170</v>
       </c>
@@ -5601,7 +5601,7 @@
       <c r="L105" s="111"/>
       <c r="M105" s="110"/>
     </row>
-    <row r="106" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B106" s="112"/>
       <c r="C106" s="110"/>
       <c r="D106" s="110"/>
@@ -5615,7 +5615,7 @@
       <c r="L106" s="111"/>
       <c r="M106" s="110"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B107" s="113" t="s">
         <v>171</v>
       </c>
@@ -5631,7 +5631,7 @@
       <c r="L107" s="111"/>
       <c r="M107" s="110"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B108" s="2"/>
       <c r="C108" s="110"/>
       <c r="D108" s="110"/>
@@ -5645,7 +5645,7 @@
       <c r="L108" s="111"/>
       <c r="M108" s="110"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B109" s="118" t="s">
         <v>173</v>
       </c>
@@ -5661,7 +5661,7 @@
       <c r="L109" s="111"/>
       <c r="M109" s="110"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B110" s="118" t="s">
         <v>174</v>
       </c>
@@ -5677,7 +5677,7 @@
       <c r="L110" s="111"/>
       <c r="M110" s="110"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B111" s="118" t="s">
         <v>175</v>
       </c>
@@ -5693,7 +5693,7 @@
       <c r="L111" s="111"/>
       <c r="M111" s="110"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>172</v>
       </c>
@@ -5709,7 +5709,7 @@
       <c r="L112" s="111"/>
       <c r="M112" s="110"/>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B113" s="114"/>
       <c r="C113" s="110"/>
       <c r="D113" s="110"/>
@@ -5725,11 +5725,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" xr:uid="{EA82AA79-F9BD-4292-9DB5-9E1CE16D0F62}"/>
-    <hyperlink ref="B110" r:id="rId2" xr:uid="{162248FC-0182-44A8-84AA-B3B4D7587475}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{E7D9975A-9F03-4B79-862A-503A4AAE2D61}"/>
-    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{90F0B302-708E-4CCC-BCEA-55085E070736}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{5C7CA4F8-33E8-4F3B-A7D3-339C00726763}"/>
+    <hyperlink ref="B109" r:id="rId1" xr:uid="{8F1188C1-500D-4452-9B64-ECF3A02234E0}"/>
+    <hyperlink ref="B110" r:id="rId2" xr:uid="{CA8C98CF-E342-4F45-9E9C-0F9DC2629E72}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{2E39E92E-B691-4A37-9EF9-ACA3371E6BA1}"/>
+    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{8CF5647B-729D-439A-93E6-6D2438C0B66E}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{FE4336D6-F185-4766-85FE-B98D48CC5298}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2025_Tableau_annexe_Tab12.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab12.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{613107A6-24BE-4303-BF4C-9DE6448781AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{477979B5-E9A5-41E2-B692-9535F1EB471C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{FAA93544-DF8C-4ED3-A350-BC47192327A0}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{217A4D42-2E25-459E-AC4D-8F78EB04F9A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab12" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab12'!$A$2:$M$98</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab12'!$A$1:$G$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab12'!$A$2:$C$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab12'!$A$1:$G$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,54 +37,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="176">
-  <si>
-    <t>Table 12: Investment and capital stock</t>
-  </si>
-  <si>
-    <t>CntryCode</t>
-  </si>
-  <si>
-    <t>Country (Resource-rich countries are shaded)</t>
-  </si>
-  <si>
-    <t>General government investment (gross fixed capital formation) as a % of GDP, 2019</t>
-  </si>
-  <si>
-    <t>Public-private partnership (PPP) investment as a % of GDP, 2019</t>
-  </si>
-  <si>
-    <t>Private investment (gross fixed capital formation) as a % of GDP, 2019</t>
-  </si>
-  <si>
-    <t>General government capital stock as a % of GDP, 2019</t>
-  </si>
-  <si>
-    <t>Public-private partnership (PPP) capital stock as a % of GDP, 2019</t>
-  </si>
-  <si>
-    <t>Private capital stock as a % of GDP, 2019</t>
-  </si>
-  <si>
-    <t>General government investment (gross fixed capital formation) (millions of USD), 2019</t>
-  </si>
-  <si>
-    <t>Private investment (gross fixed capital formation) (millions of USD), 2019</t>
-  </si>
-  <si>
-    <t>General government capital stock (millions of USD), 2019</t>
-  </si>
-  <si>
-    <t>Public-private partnership (PPP) capital stock (millions of USD), 2019</t>
-  </si>
-  <si>
-    <t>Private capital stock (millions of USD), 2019</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="178">
+  <si>
+    <t>Tableau 12 : Investissement et stock de capital</t>
+  </si>
+  <si>
+    <t>ISO3 Code</t>
+  </si>
+  <si>
+    <t>Pays (pays riches en ressources ombrés)</t>
+  </si>
+  <si>
+    <t>Investissement des administrations publiques (formation brute de capital fixe) en % du PIB</t>
+  </si>
+  <si>
+    <t>Investissements dans les partenariats public-privé (PPP) en % du PIB, 2019</t>
+  </si>
+  <si>
+    <t>Investissement privé (formation brute de capital fixe) en % du PIB, 2019</t>
+  </si>
+  <si>
+    <t>Stock de capital des administrations publiques en % du PIB, 2019</t>
+  </si>
+  <si>
+    <t>Stock de capital des partenariats public-privé (PPP) en % du PIB, 2019</t>
+  </si>
+  <si>
+    <t>Stock de capital privé en % du PIB, 2019</t>
+  </si>
+  <si>
+    <t>Investissement des administrations publiques (formation brute de capital fixe) (millions de dollars US), 2019</t>
+  </si>
+  <si>
+    <t>Investissement privé (formation brute de capital fixe) (millions de dollars US), 2019</t>
+  </si>
+  <si>
+    <t>Stock de capital des administrations publiques (millions de dollars US), 2019</t>
+  </si>
+  <si>
+    <t>Stock de capital du partenariat public-privé (PPP) (millions de dollars), 2019</t>
+  </si>
+  <si>
+    <t>Stock de capital privé (millions de dollars US), 2019</t>
   </si>
   <si>
     <t>AGO</t>
   </si>
   <si>
-    <t>Angola*</t>
+    <t>Angola</t>
   </si>
   <si>
     <t>BWA</t>
@@ -123,19 +123,19 @@
     <t>NAM</t>
   </si>
   <si>
-    <t>Namibia</t>
+    <t>Namibie</t>
   </si>
   <si>
     <t>ZAF</t>
   </si>
   <si>
-    <t>South Africa</t>
+    <t>Afrique du Sud</t>
   </si>
   <si>
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambia</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -144,7 +144,10 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Southern Africa</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Afrique Australe</t>
   </si>
   <si>
     <t>BDI</t>
@@ -156,58 +159,58 @@
     <t>CMR</t>
   </si>
   <si>
-    <t>Cameroon</t>
+    <t>Cameroun</t>
   </si>
   <si>
     <t>CAF</t>
   </si>
   <si>
-    <t>Central African Republic</t>
+    <t>République centrafricaine</t>
   </si>
   <si>
     <t>TCD</t>
   </si>
   <si>
-    <t>Chad*</t>
+    <t>Tchad</t>
   </si>
   <si>
     <t>COG</t>
   </si>
   <si>
-    <t>Congo Republic*</t>
+    <t>République du Congo</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
   </si>
   <si>
-    <t>Equatorial Guinea*</t>
+    <t>Guinée équatoriale</t>
   </si>
   <si>
     <t>GAB</t>
   </si>
   <si>
-    <t>Gabon*</t>
+    <t>Gabon</t>
   </si>
   <si>
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
-  </si>
-  <si>
-    <t>Central Africa</t>
+    <t>Sao Tomé-et-Principe</t>
+  </si>
+  <si>
+    <t>Afrique Centrale</t>
   </si>
   <si>
     <t>COM</t>
   </si>
   <si>
-    <t>Comoros</t>
+    <t>Comores</t>
   </si>
   <si>
     <t>DJI</t>
@@ -219,13 +222,13 @@
     <t>ERI</t>
   </si>
   <si>
-    <t>Eritrea</t>
+    <t>Érythrée</t>
   </si>
   <si>
     <t>ETH</t>
   </si>
   <si>
-    <t>Ethiopia</t>
+    <t>Éthiopie</t>
   </si>
   <si>
     <t>KEN</t>
@@ -243,7 +246,7 @@
     <t>MUS</t>
   </si>
   <si>
-    <t>Mauritius</t>
+    <t>Maurice</t>
   </si>
   <si>
     <t>RWA</t>
@@ -261,79 +264,79 @@
     <t>SOM</t>
   </si>
   <si>
-    <t>Somalia</t>
+    <t>Somalie</t>
   </si>
   <si>
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
   </si>
   <si>
-    <t>Sudan</t>
+    <t>Soudan</t>
   </si>
   <si>
     <t>TZA</t>
   </si>
   <si>
-    <t>Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
   </si>
   <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>East Africa</t>
+    <t>Ouganda</t>
+  </si>
+  <si>
+    <t>Afrique de l'Est</t>
   </si>
   <si>
     <t>DZA</t>
   </si>
   <si>
-    <t>Algeria*</t>
+    <t>Algérie</t>
   </si>
   <si>
     <t>EGY</t>
   </si>
   <si>
-    <t>Egypt</t>
+    <t>Égypte</t>
   </si>
   <si>
     <t>LBY</t>
   </si>
   <si>
-    <t>Libya*</t>
+    <t>Libye</t>
   </si>
   <si>
     <t>MRT</t>
   </si>
   <si>
-    <t>Mauritania*</t>
+    <t>Mauritanie</t>
   </si>
   <si>
     <t>MAR</t>
   </si>
   <si>
-    <t>Morocco</t>
+    <t>Maroc</t>
   </si>
   <si>
     <t>TUN</t>
   </si>
   <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>North Africa</t>
+    <t>Tunisie</t>
+  </si>
+  <si>
+    <t>Afrique du Nord</t>
   </si>
   <si>
     <t>BEN</t>
   </si>
   <si>
-    <t>Benin</t>
+    <t>Bénin</t>
   </si>
   <si>
     <t>BFA</t>
@@ -345,7 +348,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde*</t>
+    <t>Cabo Verde</t>
   </si>
   <si>
     <t>CIV</t>
@@ -357,7 +360,7 @@
     <t>GMB</t>
   </si>
   <si>
-    <t>Gambia</t>
+    <t>Gambie</t>
   </si>
   <si>
     <t>GHA</t>
@@ -369,13 +372,13 @@
     <t>GIN</t>
   </si>
   <si>
-    <t>Guinea</t>
+    <t>Guinée</t>
   </si>
   <si>
     <t>GNB</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
+    <t>Guinée-Bissau</t>
   </si>
   <si>
     <t>LBR</t>
@@ -405,7 +408,7 @@
     <t>SEN</t>
   </si>
   <si>
-    <t>Senegal</t>
+    <t>Sénégal</t>
   </si>
   <si>
     <t>SLE</t>
@@ -420,22 +423,22 @@
     <t>Togo</t>
   </si>
   <si>
-    <t>West Africa</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>World outside Africa</t>
-  </si>
-  <si>
-    <t>Latin America and Caribbean</t>
-  </si>
-  <si>
-    <t>Asia (no high inc.)</t>
-  </si>
-  <si>
-    <t>World</t>
+    <t>Afrique de l'Ouest</t>
+  </si>
+  <si>
+    <t>Afrique</t>
+  </si>
+  <si>
+    <t>Reste du monde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amérique latine et Caraîbes </t>
+  </si>
+  <si>
+    <t>Asie (pays à revenu élevé exclus)</t>
+  </si>
+  <si>
+    <t>Monde</t>
   </si>
   <si>
     <t>COMESA</t>
@@ -444,19 +447,19 @@
     <t>CEN-SAD</t>
   </si>
   <si>
-    <t>EAC</t>
-  </si>
-  <si>
-    <t>ECCAS</t>
-  </si>
-  <si>
-    <t>ECOWAS</t>
+    <t>CAE</t>
+  </si>
+  <si>
+    <t>CEEAC</t>
+  </si>
+  <si>
+    <t>CEDEAO</t>
   </si>
   <si>
     <t>IGAD</t>
   </si>
   <si>
-    <t>SADC</t>
+    <t>CDAA</t>
   </si>
   <si>
     <t>UMA</t>
@@ -474,97 +477,101 @@
     <t>EU27</t>
   </si>
   <si>
-    <t>OECD</t>
-  </si>
-  <si>
-    <t>Africa, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Low income countries</t>
-  </si>
-  <si>
-    <t>ROW, Low income countries</t>
-  </si>
-  <si>
-    <t>Africa, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>Africa, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>High income countries</t>
-  </si>
-  <si>
-    <t>Africa, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>ROW, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>Africa, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>ROW, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>Africa, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>ROW, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>Africa, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>ROW, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
-  </si>
-  <si>
-    <t>Note: *Resource-rich countries; ".." indicates data not available or not applicable.</t>
-  </si>
-  <si>
-    <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
-  </si>
-  <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
-  </si>
-  <si>
-    <t>GDP ratios are calculated using investment, capital stock and GPD in constant 2017 international dollars. Figures in US dollars are converted from national currency using the ratio of GDP in US dollars to gdp in national currency.</t>
-  </si>
-  <si>
-    <t>Source: Author's calculations based on IMF Investment and Capital Stock (ICSD) dataset (updated on Oct 27, 2023) and IMF World Economic Outlook Database October 2025.</t>
-  </si>
-  <si>
-    <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
-  </si>
-  <si>
-    <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
-  </si>
-  <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
-  </si>
-  <si>
-    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
+    <t>OCDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afrique, pays riches en ressources </t>
+  </si>
+  <si>
+    <t>RDM, pays riches en ressources</t>
+  </si>
+  <si>
+    <t>Afrique (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>RDM (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>Afrique, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>RDM, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>Pays à revenu élevé</t>
+  </si>
+  <si>
+    <t>Afrique, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>RDM, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>Afrique, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
+  </si>
+  <si>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+  </si>
+  <si>
+    <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
+  </si>
+  <si>
+    <t>RDM = "Reste du monde" ; ALC = "Pays d'Amérique latine et des Caraïbes"</t>
+  </si>
+  <si>
+    <t>CEN-SAD = « Communauté des États sahélo-sahariens » ; COMESA = « Marché commun de l’Afrique orientale et australe » ; EAC = « Communauté d’Afrique de l’Est » ; ECCAS = « Communauté économique des États de l’Afrique centrale » ; ECOWAS = « Communauté économique des États de l’Afrique de l’Ouest » ; IGAD = « Autorité intergouvernementale pour le développement » ; SADC = « Communauté de développement de l’Afrique australe » ; UMA = « Union du Maghreb arabe » ; PALOP = « Pays africains de langue officielle portugaise » ; ASEAN = « Association des nations de l’Asie du Sud-Est » ; MERCOSUR = « Marché commun du Sud ».
+EU27 = « Union européenne (27 membres) ». OECD = « Organisation de coopération et de développement économiques ».</t>
+  </si>
+  <si>
+    <t>Les ratios du PIB sont calculés en utilisant l'investissement, le stock de capital et le PIB en dollars internationaux constants de 2017. Les chiffres en dollars américains sont convertis à partir de la monnaie nationale en utilisant le ratio du PIB en dollars américains au PIB en monnaie nationale.</t>
+  </si>
+  <si>
+    <t>Source : Calculs de l’auteur basés sur l’ensemble de données du FMI sur l’investissement et le stock de capital (ICSD) (mis à jour le 27/10/2023) et sur la base de données des Perspectives économiques mondiales du FMI (octobre 2025).</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des indicateurs, leurs descriptions et détails pour plus d’informations sur les indicateurs présentés dans ce tableau.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des pays et des regroupements de pays utilisés pour agréger les indicateurs et voir quels pays appartiennent à chaque regroupement.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour télécharger toutes les données de l’Annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques depuis 2000 (dans un format de fichier compressé).</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour visiter le site web où vous trouverez le rapport sur la dynamique du développement en Afrique, ainsi que des liens pour explorer ces données plus en détail et consulter les valeurs historiques de ces indicateurs.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste complète des sources utilisées dans l'annexe statistique.</t>
   </si>
 </sst>
 </file>
@@ -713,17 +720,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
       <u/>
       <sz val="11"/>
-      <color rgb="FFA54917"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
       <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
@@ -1275,10 +1279,10 @@
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1561,24 +1565,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9ADF3D-B42A-47C4-BE12-012322B476C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDDE46E-0650-4A78-B933-00EE768F73AF}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:M116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.1796875" style="115" customWidth="1"/>
-    <col min="5" max="6" width="14.1796875" style="116" customWidth="1"/>
-    <col min="7" max="8" width="14.1796875" style="115" customWidth="1"/>
-    <col min="9" max="12" width="14.1796875" style="117" customWidth="1"/>
-    <col min="13" max="13" width="14.1796875" style="115" customWidth="1"/>
-    <col min="14" max="15" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" style="117" customWidth="1"/>
+    <col min="4" max="15" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1597,7 +1597,7 @@
       <c r="L1" s="4"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2049,9 +2049,11 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="38"/>
+      <c r="A13" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="B13" s="39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="40">
         <v>3.093512</v>
@@ -2089,10 +2091,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="30">
         <v>2.77704</v>
@@ -2130,10 +2132,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="30">
         <v>3.6611189999999998</v>
@@ -2171,10 +2173,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="30">
         <v>6.7031510000000001</v>
@@ -2212,10 +2214,10 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="46">
         <v>2.00291</v>
@@ -2253,10 +2255,10 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="46">
         <v>4.5125859999999998</v>
@@ -2294,10 +2296,10 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="21">
         <v>2.2708159999999999</v>
@@ -2335,10 +2337,10 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="46">
         <v>4.3048960000000003</v>
@@ -2376,10 +2378,10 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="46">
         <v>1.563761</v>
@@ -2417,10 +2419,10 @@
     </row>
     <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="52">
         <v>3.295452</v>
@@ -2457,9 +2459,11 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="38"/>
+      <c r="A23" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="B23" s="39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="40">
         <v>3.0146730000000002</v>
@@ -2497,10 +2501,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="58">
         <v>4.7082959999999998</v>
@@ -2538,10 +2542,10 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="30">
         <v>7.4317700000000002</v>
@@ -2579,10 +2583,10 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="30">
         <v>1.9961070000000001</v>
@@ -2620,10 +2624,10 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="30">
         <v>8.8851759999999995</v>
@@ -2661,10 +2665,10 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="30">
         <v>5.5193580000000004</v>
@@ -2702,10 +2706,10 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C29" s="30">
         <v>2.9933169999999998</v>
@@ -2743,10 +2747,10 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C30" s="30">
         <v>3.9984980000000001</v>
@@ -2784,10 +2788,10 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C31" s="30">
         <v>7.2290999999999999</v>
@@ -2825,10 +2829,10 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" s="30">
         <v>4.9146979999999996</v>
@@ -2866,10 +2870,10 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" s="30" t="s">
         <v>20</v>
@@ -2907,10 +2911,10 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C34" s="46" t="s">
         <v>20</v>
@@ -2948,10 +2952,10 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C35" s="30" t="s">
         <v>20</v>
@@ -2989,10 +2993,10 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C36" s="30">
         <v>6.8747480000000003</v>
@@ -3030,10 +3034,10 @@
     </row>
     <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C37" s="33">
         <v>4.3793949999999997</v>
@@ -3070,9 +3074,11 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="38"/>
+      <c r="A38" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="B38" s="39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C38" s="40">
         <v>6.4581400000000002</v>
@@ -3110,10 +3116,10 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B39" s="63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C39" s="64">
         <v>9.1928070000000002</v>
@@ -3151,10 +3157,10 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C40" s="30">
         <v>4.161016</v>
@@ -3192,10 +3198,10 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B41" s="69" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C41" s="46" t="s">
         <v>20</v>
@@ -3233,10 +3239,10 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B42" s="69" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C42" s="46">
         <v>2.1650390000000002</v>
@@ -3274,10 +3280,10 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C43" s="30">
         <v>4.4026149999999999</v>
@@ -3315,10 +3321,10 @@
     </row>
     <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B44" s="51" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C44" s="52">
         <v>3.3230390000000001</v>
@@ -3355,9 +3361,11 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="38"/>
+      <c r="A45" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="B45" s="39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C45" s="40">
         <v>5.3267449999999998</v>
@@ -3395,10 +3403,10 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B46" s="57" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C46" s="58">
         <v>2.6005020000000001</v>
@@ -3436,10 +3444,10 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C47" s="30">
         <v>4.7611059999999998</v>
@@ -3477,10 +3485,10 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B48" s="69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C48" s="46">
         <v>2.364236</v>
@@ -3518,10 +3526,10 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C49" s="30">
         <v>4.4397039999999999</v>
@@ -3559,10 +3567,10 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C50" s="30">
         <v>5.3442550000000004</v>
@@ -3600,10 +3608,10 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C51" s="21">
         <v>0.98614800000000002</v>
@@ -3641,10 +3649,10 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C52" s="30">
         <v>1.901354</v>
@@ -3682,10 +3690,10 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C53" s="30">
         <v>1.6172059999999999</v>
@@ -3723,10 +3731,10 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C54" s="30">
         <v>6.4754110000000003</v>
@@ -3764,10 +3772,10 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C55" s="30">
         <v>4.1653140000000004</v>
@@ -3805,10 +3813,10 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C56" s="30">
         <v>8.2940670000000001</v>
@@ -3846,10 +3854,10 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C57" s="30">
         <v>1.1825969999999999</v>
@@ -3887,10 +3895,10 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C58" s="30">
         <v>4.1179819999999996</v>
@@ -3928,10 +3936,10 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C59" s="30">
         <v>1.571906</v>
@@ -3969,10 +3977,10 @@
     </row>
     <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C60" s="33">
         <v>3.1908500000000002</v>
@@ -4011,7 +4019,7 @@
     <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="38"/>
       <c r="B61" s="39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C61" s="40">
         <v>1.805126</v>
@@ -4050,7 +4058,7 @@
     <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="70"/>
       <c r="B62" s="71" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C62" s="72">
         <v>3.87107</v>
@@ -4089,7 +4097,7 @@
     <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="70"/>
       <c r="B63" s="71" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C63" s="72">
         <v>6.3914410000000004</v>
@@ -4128,7 +4136,7 @@
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="77"/>
       <c r="B64" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C64" s="79">
         <v>2.8037079999999999</v>
@@ -4167,7 +4175,7 @@
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="77"/>
       <c r="B65" s="84" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C65" s="85">
         <v>11.171244</v>
@@ -4206,7 +4214,7 @@
     <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="77"/>
       <c r="B66" s="90" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C66" s="91">
         <v>6.257123</v>
@@ -4245,7 +4253,7 @@
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="77"/>
       <c r="B67" s="84" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C67" s="85">
         <v>4.7276369999999996</v>
@@ -4284,7 +4292,7 @@
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="77"/>
       <c r="B68" s="84" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C68" s="85">
         <v>2.854752</v>
@@ -4323,7 +4331,7 @@
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="77"/>
       <c r="B69" s="84" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C69" s="85">
         <v>5.179583</v>
@@ -4362,7 +4370,7 @@
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="77"/>
       <c r="B70" s="84" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C70" s="85">
         <v>3.2346080000000001</v>
@@ -4401,7 +4409,7 @@
     <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="77"/>
       <c r="B71" s="84" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C71" s="85">
         <v>1.805126</v>
@@ -4440,7 +4448,7 @@
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="77"/>
       <c r="B72" s="84" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C72" s="85">
         <v>6.748151</v>
@@ -4479,7 +4487,7 @@
     <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="77"/>
       <c r="B73" s="84" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C73" s="85">
         <v>3.44096</v>
@@ -4518,7 +4526,7 @@
     <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="77"/>
       <c r="B74" s="84" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C74" s="85">
         <v>6.8917619999999999</v>
@@ -4557,7 +4565,7 @@
     <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="77"/>
       <c r="B75" s="84" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C75" s="96">
         <v>3.4273210000000001</v>
@@ -4596,7 +4604,7 @@
     <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="77"/>
       <c r="B76" s="101" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C76" s="102">
         <v>4.4924920000000004</v>
@@ -4635,7 +4643,7 @@
     <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="77"/>
       <c r="B77" s="84" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C77" s="85">
         <v>3.1090170000000001</v>
@@ -4674,7 +4682,7 @@
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="77"/>
       <c r="B78" s="84" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C78" s="85">
         <v>3.0157319999999999</v>
@@ -4713,7 +4721,7 @@
     <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="77"/>
       <c r="B79" s="90" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C79" s="91">
         <v>3.4218820000000001</v>
@@ -4752,7 +4760,7 @@
     <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="77"/>
       <c r="B80" s="101" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C80" s="102">
         <v>6.5664699999999998</v>
@@ -4791,7 +4799,7 @@
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="77"/>
       <c r="B81" s="84" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C81" s="85">
         <v>5.1361660000000002</v>
@@ -4830,7 +4838,7 @@
     <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="77"/>
       <c r="B82" s="84" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C82" s="85">
         <v>3.422771</v>
@@ -4869,7 +4877,7 @@
     <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="77"/>
       <c r="B83" s="90" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C83" s="91">
         <v>6.5064820000000001</v>
@@ -4908,7 +4916,7 @@
     <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="77"/>
       <c r="B84" s="101" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C84" s="102">
         <v>4.0479070000000004</v>
@@ -4947,7 +4955,7 @@
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="77"/>
       <c r="B85" s="107" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C85" s="85">
         <v>6.1872439999999997</v>
@@ -4986,7 +4994,7 @@
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="77"/>
       <c r="B86" s="84" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C86" s="85">
         <v>3.173721</v>
@@ -5025,7 +5033,7 @@
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="77"/>
       <c r="B87" s="84" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C87" s="85">
         <v>4.8493430000000002</v>
@@ -5064,7 +5072,7 @@
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="77"/>
       <c r="B88" s="84" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C88" s="85">
         <v>5.1822509999999999</v>
@@ -5103,7 +5111,7 @@
     <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="77"/>
       <c r="B89" s="84" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C89" s="85">
         <v>10.891171</v>
@@ -5142,7 +5150,7 @@
     <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="77"/>
       <c r="B90" s="90" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C90" s="91">
         <v>3.7335850000000002</v>
@@ -5181,7 +5189,7 @@
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="77"/>
       <c r="B91" s="101" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C91" s="102">
         <v>5.0233410000000003</v>
@@ -5220,7 +5228,7 @@
     <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="77"/>
       <c r="B92" s="84" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C92" s="85">
         <v>5.9240539999999999</v>
@@ -5259,7 +5267,7 @@
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="77"/>
       <c r="B93" s="84" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C93" s="85">
         <v>3.7182460000000002</v>
@@ -5298,7 +5306,7 @@
     <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="77"/>
       <c r="B94" s="84" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C94" s="85">
         <v>4.0393439999999998</v>
@@ -5337,7 +5345,7 @@
     <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="77"/>
       <c r="B95" s="84" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C95" s="85">
         <v>6.4864759999999997</v>
@@ -5376,7 +5384,7 @@
     <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="77"/>
       <c r="B96" s="90" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C96" s="91">
         <v>4.1940619999999997</v>
@@ -5415,7 +5423,7 @@
     <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="77"/>
       <c r="B97" s="101" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C97" s="102">
         <v>3.305644</v>
@@ -5454,7 +5462,7 @@
     <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="77"/>
       <c r="B98" s="90" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C98" s="91">
         <v>4.0349750000000002</v>
@@ -5507,7 +5515,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C100" s="110"/>
       <c r="D100" s="110"/>
@@ -5523,7 +5531,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C101" s="110"/>
       <c r="D101" s="110"/>
@@ -5539,7 +5547,7 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C102" s="110"/>
       <c r="D102" s="110"/>
@@ -5555,7 +5563,7 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C103" s="110"/>
       <c r="D103" s="110"/>
@@ -5571,7 +5579,7 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C104" s="110"/>
       <c r="D104" s="110"/>
@@ -5587,7 +5595,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C105" s="110"/>
       <c r="D105" s="110"/>
@@ -5602,6 +5610,9 @@
       <c r="M105" s="110"/>
     </row>
     <row r="106" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="B106" s="112"/>
       <c r="C106" s="110"/>
       <c r="D106" s="110"/>
@@ -5615,10 +5626,8 @@
       <c r="L106" s="111"/>
       <c r="M106" s="110"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B107" s="113" t="s">
-        <v>171</v>
-      </c>
+    <row r="107" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="112"/>
       <c r="C107" s="110"/>
       <c r="D107" s="110"/>
       <c r="E107" s="111"/>
@@ -5632,7 +5641,9 @@
       <c r="M107" s="110"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+      <c r="B108" s="118" t="s">
+        <v>176</v>
+      </c>
       <c r="C108" s="110"/>
       <c r="D108" s="110"/>
       <c r="E108" s="111"/>
@@ -5646,9 +5657,7 @@
       <c r="M108" s="110"/>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B109" s="118" t="s">
-        <v>173</v>
-      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="110"/>
       <c r="D109" s="110"/>
       <c r="E109" s="111"/>
@@ -5662,8 +5671,8 @@
       <c r="M109" s="110"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B110" s="118" t="s">
-        <v>174</v>
+      <c r="B110" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="C110" s="110"/>
       <c r="D110" s="110"/>
@@ -5678,8 +5687,8 @@
       <c r="M110" s="110"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B111" s="118" t="s">
-        <v>175</v>
+      <c r="B111" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="C111" s="110"/>
       <c r="D111" s="110"/>
@@ -5694,8 +5703,8 @@
       <c r="M111" s="110"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>172</v>
+      <c r="B112" s="118" t="s">
+        <v>177</v>
       </c>
       <c r="C112" s="110"/>
       <c r="D112" s="110"/>
@@ -5710,7 +5719,9 @@
       <c r="M112" s="110"/>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B113" s="114"/>
+      <c r="B113" s="118" t="s">
+        <v>175</v>
+      </c>
       <c r="C113" s="110"/>
       <c r="D113" s="110"/>
       <c r="E113" s="111"/>
@@ -5723,16 +5734,58 @@
       <c r="L113" s="111"/>
       <c r="M113" s="110"/>
     </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B114" s="113"/>
+      <c r="C114" s="110"/>
+      <c r="D114" s="110"/>
+      <c r="E114" s="111"/>
+      <c r="F114" s="111"/>
+      <c r="G114" s="110"/>
+      <c r="H114" s="110"/>
+      <c r="I114" s="111"/>
+      <c r="J114" s="111"/>
+      <c r="K114" s="111"/>
+      <c r="L114" s="111"/>
+      <c r="M114" s="110"/>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B115" s="113"/>
+      <c r="C115" s="111"/>
+      <c r="D115" s="111"/>
+      <c r="E115" s="111"/>
+      <c r="F115" s="111"/>
+      <c r="G115" s="111"/>
+      <c r="H115" s="111"/>
+      <c r="I115" s="111"/>
+      <c r="J115" s="111"/>
+      <c r="K115" s="111"/>
+      <c r="L115" s="111"/>
+      <c r="M115" s="111"/>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B116" s="114"/>
+      <c r="C116" s="115"/>
+      <c r="D116" s="115"/>
+      <c r="E116" s="115"/>
+      <c r="F116" s="115"/>
+      <c r="G116" s="115"/>
+      <c r="H116" s="115"/>
+      <c r="I116" s="115"/>
+      <c r="J116" s="115"/>
+      <c r="K116" s="116"/>
+      <c r="L116" s="116"/>
+      <c r="M116" s="116"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" xr:uid="{8F1188C1-500D-4452-9B64-ECF3A02234E0}"/>
-    <hyperlink ref="B110" r:id="rId2" xr:uid="{CA8C98CF-E342-4F45-9E9C-0F9DC2629E72}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{2E39E92E-B691-4A37-9EF9-ACA3371E6BA1}"/>
-    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{8CF5647B-729D-439A-93E6-6D2438C0B66E}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{FE4336D6-F185-4766-85FE-B98D48CC5298}"/>
+    <hyperlink ref="B110" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{7D6F1B0E-514D-4A81-A5AA-4C6E371BD089}"/>
+    <hyperlink ref="B111" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{2B8BD7CD-EB0E-47DA-9B70-9526D9BB3115}"/>
+    <hyperlink ref="B113" r:id="rId3" xr:uid="{BF8F5327-3E9A-4221-A858-C25D83705A05}"/>
+    <hyperlink ref="B108" r:id="rId4" xr:uid="{7F5894B0-B3D4-4B90-B42B-9D7124FE9719}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{3FD63BF7-333D-4A21-B9D5-0E324D012169}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" scale="46" fitToWidth="0" orientation="portrait" r:id="rId6"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
   </headerFooter>
